--- a/data/2024/fid/FID-REWI-DE-21.xlsx
+++ b/data/2024/fid/FID-REWI-DE-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="989">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -241,1218 +241,1227 @@
     <t>1.1961/62 -</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>DE-1;DE-3-10;DE-12;DE-15;DE-16;DE-18;DE-29;DE-30;DE-89-19;DE-700;DE-703;DE-705;DE-Kn28;DE-L228</t>
+  </si>
+  <si>
+    <t>4986-4</t>
+  </si>
+  <si>
+    <t>Studi e materiali di storia delle religioni</t>
+  </si>
+  <si>
+    <t>Morcelliana</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>ita</t>
+  </si>
+  <si>
+    <t>0081-6175;0393-8417;0036-1690</t>
+  </si>
+  <si>
+    <t>230;200</t>
+  </si>
+  <si>
+    <t>0;1;FID-REWI-DE-21</t>
+  </si>
+  <si>
+    <t>1.1925 - 3.1927; N.S.1=4.1928 - 6=9.1933; 10.1934 - 40.1969; N.S. 7=49.1983 - 32=74.2008; 75.2009 -</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>DE-1;DE-12;DE-24;DE-352</t>
+  </si>
+  <si>
+    <t>1086843-4</t>
+  </si>
+  <si>
+    <t>Studies in interreligious dialogue</t>
+  </si>
+  <si>
+    <t>Peeters</t>
+  </si>
+  <si>
+    <t>Louvain</t>
+  </si>
+  <si>
+    <t>0926-2326</t>
+  </si>
+  <si>
+    <t>200;290</t>
+  </si>
+  <si>
+    <t>FID-REWI-DE-21;0;6,23;1</t>
+  </si>
+  <si>
+    <t>1.1991 -</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-6;DE-12;DE-17;DE-H373;DE-19;DE-20;DE-25;DE-29;DE-466;DE-Kn28;DE-A99</t>
+  </si>
+  <si>
+    <t>9238-1</t>
+  </si>
+  <si>
+    <t>Materialien und Informationen zur Zeit</t>
+  </si>
+  <si>
+    <t>Alibri-Verl.</t>
+  </si>
+  <si>
+    <t>Aschaffenburg</t>
+  </si>
+  <si>
+    <t>0170-6748</t>
+  </si>
+  <si>
+    <t>0;FID-REWI-DE-21</t>
+  </si>
+  <si>
+    <t>[1.]1972; 2.1973 -</t>
+  </si>
+  <si>
+    <t>DE-4;DE-12;DE-15;DE-20</t>
+  </si>
+  <si>
+    <t>402975-6</t>
+  </si>
+  <si>
+    <t>Bulletin of the Nanzan Institute for Religion and Culture</t>
+  </si>
+  <si>
+    <t>Inst.</t>
+  </si>
+  <si>
+    <t>Nagoya</t>
+  </si>
+  <si>
+    <t>0386-720X</t>
+  </si>
+  <si>
+    <t>290;050;200</t>
+  </si>
+  <si>
+    <t>1.1977-no. 46 (2022)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DE-1a</t>
+  </si>
+  <si>
+    <t>1097605-X</t>
+  </si>
+  <si>
+    <t>Wege ohne Dogma</t>
+  </si>
+  <si>
+    <t>Verl. Freireligiöse Verlagsbuchhandlung</t>
+  </si>
+  <si>
+    <t>Mannheim</t>
+  </si>
+  <si>
+    <t>0940-9394</t>
+  </si>
+  <si>
+    <t>070;200</t>
+  </si>
+  <si>
+    <t>192196-4;514996-4</t>
+  </si>
+  <si>
+    <t>1.1992 -</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>DE-4;DE-15;DE-M352;DE-31;DE-123;DE-107</t>
+  </si>
+  <si>
+    <t>18957-1</t>
+  </si>
+  <si>
+    <t>Journal of prehistoric religion</t>
+  </si>
+  <si>
+    <t>Åström</t>
+  </si>
+  <si>
+    <t>Uppsala</t>
+  </si>
+  <si>
+    <t>0283-8486</t>
+  </si>
+  <si>
+    <t>930;290</t>
+  </si>
+  <si>
+    <t>0;6,11;6,12;FID-REWI-DE-21</t>
+  </si>
+  <si>
+    <t>1.1987 -</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>DE-12;DE-16;DE-19;DE-20;DE-F36</t>
+  </si>
+  <si>
+    <t>417388-0</t>
+  </si>
+  <si>
+    <t>Orita</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Ibadan</t>
+  </si>
+  <si>
+    <t>0030-5596</t>
+  </si>
+  <si>
+    <t>FID-NAHOST-DE-3;0;6,23;FID-AFRIKA-DE-30;FID-REWI-DE-21</t>
+  </si>
+  <si>
+    <t>1.1967-47, 1/2 (June&amp;December 2015) ; damit Erscheinen eingestellt</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>419233-3</t>
+  </si>
+  <si>
+    <t>The review of religions</t>
+  </si>
+  <si>
+    <t>Islamic Publications</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>0743-5622;0034-6721</t>
+  </si>
+  <si>
+    <t>290;200</t>
+  </si>
+  <si>
+    <t>FID-NAHOST-DE-3;1;6,23;0;FID-REWI-DE-21</t>
+  </si>
+  <si>
+    <t>1.1902 -</t>
+  </si>
+  <si>
+    <t>DE-3-1</t>
+  </si>
+  <si>
+    <t>428601-7</t>
+  </si>
+  <si>
+    <t>The Open court</t>
+  </si>
+  <si>
+    <t>1.1887 -</t>
+  </si>
+  <si>
+    <t>804907-5</t>
+  </si>
+  <si>
+    <t>b;rb</t>
+  </si>
+  <si>
+    <t>Theosophie heute</t>
+  </si>
+  <si>
+    <t>Theosophische Gesellschaft in Deutschland e.V.  c/o E. Köpp;MANAS-Verl.;Theosophische Ges.;Theosophische Ges. c/o C. Wegner</t>
+  </si>
+  <si>
+    <t>[Frankfurt];Dresden;Stuttgart;Berlin;Bochum</t>
+  </si>
+  <si>
+    <t>0177-8005</t>
+  </si>
+  <si>
+    <t>130;100;200</t>
+  </si>
+  <si>
+    <t>505247-6</t>
+  </si>
+  <si>
+    <t>32.1985 -</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DE-15;DE-109</t>
+  </si>
+  <si>
+    <t>502529-1</t>
+  </si>
+  <si>
+    <t>Adyar</t>
+  </si>
+  <si>
+    <t>Theosophische Ges. Adyar in Deutschland</t>
+  </si>
+  <si>
+    <t>[Hamburg];Berlin</t>
+  </si>
+  <si>
+    <t>0001-9011</t>
+  </si>
+  <si>
+    <t>FID-REWI-DE-21;0;5,21</t>
+  </si>
+  <si>
+    <t>1.1946, Apr./Mai - 6.1950/51,4 = Nr. 1-31; 6.1950/51,5 - 52.1997; 61.2006 -</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DE-15;DE-29;DE-46</t>
+  </si>
+  <si>
+    <t>95157-2</t>
+  </si>
+  <si>
+    <t>Diesseits</t>
+  </si>
+  <si>
+    <t>Humanistischer Verb. Deutschlands;Dt. Freidenker-Verb., Landesverb. Berlin</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>0932-6162</t>
+  </si>
+  <si>
+    <t>050;320;200</t>
+  </si>
+  <si>
+    <t>FID-REWI-DE-21;5,21;0;1</t>
+  </si>
+  <si>
+    <t>8675-7</t>
+  </si>
+  <si>
+    <t>[1.]1987 - [3.]1989 = Nr. 1-9; 4.1990=Nr. 10 -</t>
+  </si>
+  <si>
+    <t>DE-4;DE-15;DE-109</t>
+  </si>
+  <si>
+    <t>518865-9</t>
+  </si>
+  <si>
+    <t>Gewissen und Freiheit</t>
+  </si>
+  <si>
+    <t>Internationale Vereinigung zur Verteidigung der Religionsfreiheit (IVVR);Internationale Vereinigung zur Verteidigung und Förderung der Religionsfreiheit</t>
+  </si>
+  <si>
+    <t>Bern, Schweiz;Bern</t>
+  </si>
+  <si>
+    <t>0259-0379</t>
+  </si>
+  <si>
+    <t>Nr. 1.1973 - 26.1986; Jg. 14.1986 - 23.1995/96 = Nr. 27-45; [24.]1996=Nr. 46/47; 25.1997=Nr. 48 - 50.2021; 2022=Nr. 77</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-7;DE-H373;DE-20;DE-29;DE-1052;DE-38;DE-45;DE-46;DE-212;DE-37;DE-473;DE-700;DE-703;DE-715;DE-824;DE-Hil2;DE-Va1;DE-Brg3;DE-Kn28;DE-752;DE-52;DE-Stg257;DE-Ka26</t>
+  </si>
+  <si>
+    <t>896062-8</t>
+  </si>
+  <si>
+    <t>Acta comparanda</t>
+  </si>
+  <si>
+    <t>FVG</t>
+  </si>
+  <si>
+    <t>Antwerpen</t>
+  </si>
+  <si>
+    <t>0779-9853</t>
+  </si>
+  <si>
+    <t>1.1984 -</t>
+  </si>
+  <si>
+    <t>896088-4</t>
+  </si>
+  <si>
+    <t>Religioni e società</t>
+  </si>
+  <si>
+    <t>Serra</t>
+  </si>
+  <si>
+    <t>Pisa;Roma</t>
+  </si>
+  <si>
+    <t>0394-9397</t>
+  </si>
+  <si>
+    <t>1.1986=Nr. 1 -</t>
+  </si>
+  <si>
+    <t>DE-89-19</t>
+  </si>
+  <si>
+    <t>896097-5</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Cosmos</t>
+  </si>
+  <si>
+    <t>Edinburgh Univ. Press</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>0269-8773</t>
+  </si>
+  <si>
+    <t>895991-2</t>
+  </si>
+  <si>
+    <t>1.1985(1986) -</t>
+  </si>
+  <si>
+    <t>896181-5</t>
+  </si>
+  <si>
+    <t>Chaos</t>
+  </si>
+  <si>
+    <t>Forlaget Chaos</t>
+  </si>
+  <si>
+    <t>København</t>
+  </si>
+  <si>
+    <t>0108-4453</t>
+  </si>
+  <si>
+    <t>1.1982 -</t>
+  </si>
+  <si>
+    <t>896519-5</t>
+  </si>
+  <si>
+    <t>Buddhist Christian studies</t>
+  </si>
+  <si>
+    <t>Univ. of Hawaii Press</t>
+  </si>
+  <si>
+    <t>Honolulu, Hawaii</t>
+  </si>
+  <si>
+    <t>0882-0945</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>FID-ASIEN-DE-1a;1;6,24;6,25;0;FID-REWI-DE-21</t>
+  </si>
+  <si>
+    <t>1.1981 -</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-A99</t>
+  </si>
+  <si>
+    <t>146527-2</t>
+  </si>
+  <si>
+    <t>Info3</t>
+  </si>
+  <si>
+    <t>Info-3-Verl.-Ges. Brüll &amp; Heisterkamp;Werkgroep Driegeleding;Georgenberg</t>
+  </si>
+  <si>
+    <t>Frankfurt, M.;Amsterdam;Reutlingen</t>
+  </si>
+  <si>
+    <t>1437-1898</t>
+  </si>
+  <si>
+    <t>FID-REWI-DE-21;5,21;0</t>
+  </si>
+  <si>
+    <t>1976 nachgewiesen; 1981 - 1982; 1998,10 - 2004,1; 29.2004,2 -</t>
+  </si>
+  <si>
+    <t>DE-15;DE-24;DE-25-122;DE-123;DE-858</t>
+  </si>
+  <si>
+    <t>538114-9</t>
+  </si>
+  <si>
+    <t>b;rb;mg</t>
+  </si>
+  <si>
+    <t>Humanität</t>
+  </si>
+  <si>
+    <t>Grossloge A.Fu.A.M von Deutschland</t>
+  </si>
+  <si>
+    <t>0721-8990</t>
+  </si>
+  <si>
+    <t>0;FID-REWI-DE-21;FID-GER-DE-30</t>
+  </si>
+  <si>
+    <t>1.1975 - 21.1995; 21.1996 - 23.1998; 25.1999 - 37.2011; 37.2012 - 39.2014; 41.2015 -</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>DE-4;DE-14;DE-26;DE-F42;DE-32;DE-35;DE-361;DE-468;DE-703;DE-51</t>
+  </si>
+  <si>
+    <t>967969-8</t>
+  </si>
+  <si>
+    <t>Japanese religions</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Kyoto</t>
+  </si>
+  <si>
+    <t>0448-8954</t>
+  </si>
+  <si>
+    <t>290;910;940</t>
+  </si>
+  <si>
+    <t>FID-ASIEN-DE-1a;6,25;0;FID-REWI-DE-21</t>
+  </si>
+  <si>
+    <t>1.1959/60 -</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-15;DE-19;DE-20</t>
+  </si>
+  <si>
+    <t>968066-4</t>
+  </si>
+  <si>
+    <t>Tenri journal of religion</t>
+  </si>
+  <si>
+    <t>Tenri University Press</t>
+  </si>
+  <si>
+    <t>Tenri</t>
+  </si>
+  <si>
+    <t>0495-1492</t>
+  </si>
+  <si>
+    <t>No. 1 (1955)-no. 48 (2020)</t>
+  </si>
+  <si>
+    <t>186759-3</t>
+  </si>
+  <si>
+    <t>Archives de sciences sociales des religions</t>
+  </si>
+  <si>
+    <t>Ed. de l'Ecole des Hautes Etudes en Sciences Sociales</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>fre;eng</t>
+  </si>
+  <si>
+    <t>0335-5985</t>
+  </si>
+  <si>
+    <t>FID-REWI-DE-21;0;1</t>
+  </si>
+  <si>
+    <t>541-1</t>
+  </si>
+  <si>
+    <t>18.1973=Nr. 35 -</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-7;DE-8;DE-12;DE-15;DE-16;DE-46;DE-61;DE-352;DE-517;DE-547;DE-Kn28</t>
+  </si>
+  <si>
+    <t>195883-5</t>
+  </si>
+  <si>
+    <t>Journal of Mormon history</t>
+  </si>
+  <si>
+    <t>University of Illinois Press;Mormon History Association</t>
+  </si>
+  <si>
+    <t>Champaign, Ill.;Provo, Utah</t>
+  </si>
+  <si>
+    <t>0094-7342</t>
+  </si>
+  <si>
+    <t>230;970;900;220</t>
+  </si>
+  <si>
+    <t>1.1974 -</t>
+  </si>
+  <si>
+    <t>202511-5</t>
+  </si>
+  <si>
+    <t>Symbolon</t>
+  </si>
+  <si>
+    <t>Lang-Ed.</t>
+  </si>
+  <si>
+    <t>Frankfurt, M.</t>
+  </si>
+  <si>
+    <t>0082-0660</t>
+  </si>
+  <si>
+    <t>730;920;390;200</t>
+  </si>
+  <si>
+    <t>0;FID-AVL-DE-30;FID-REWI-DE-21</t>
+  </si>
+  <si>
+    <t>1.1960 - 7.1971; N.F. 1.1972 -</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-5;DE-6;DE-7;DE-8;DE-14;DE-16;DE-17-2;DE-24;DE-25;DE-29;DE-31;DE-32;DE-61;DE-Tr2;DE-467;DE-22;DE-708;DE-739;DE-154;DE-824;DE-Kn28;DE-Stg117;DE-Kob7</t>
+  </si>
+  <si>
+    <t>205407-3</t>
+  </si>
+  <si>
+    <t>Revue des sciences religieuses</t>
+  </si>
+  <si>
+    <t>Université de Strasbourg;Palais Universitaire</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>fre</t>
+  </si>
+  <si>
+    <t>0035-2217</t>
+  </si>
+  <si>
+    <t>1;0;FID-REWI-DE-21</t>
+  </si>
+  <si>
+    <t>205409-7</t>
+  </si>
+  <si>
+    <t>1.1921 - 20.1940; 21.1947 -</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-5;DE-7;DE-12;DE-16;DE-20;DE-24;DE-25;DE-F42;DE-46;DE-Tr2;DE-468;DE-700;DE-Kn28</t>
+  </si>
+  <si>
+    <t>209821-0</t>
+  </si>
+  <si>
+    <t>Revue de l'histoire des religions</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>0765-6521;0035-1423</t>
+  </si>
+  <si>
+    <t>1.1880 - 196.1979 = Année 1-98; 197.1980 -</t>
+  </si>
+  <si>
+    <t>DE-1;DE-3-1;DE-3-10;DE-5;DE-7;DE-8;DE-12;DE-15;DE-16;DE-18;DE-20;DE-29;DE-30;DE-46;DE-89-19;DE-291;DE-352;DE-355;DE-Tr2;DE-473;DE-547;DE-700;DE-D40;DE-Kn28</t>
+  </si>
+  <si>
+    <t>591646-X</t>
+  </si>
+  <si>
+    <t>Religion &amp; literature</t>
+  </si>
+  <si>
+    <t>Dep.</t>
+  </si>
+  <si>
+    <t>Notre Dame, Ind.</t>
+  </si>
+  <si>
+    <t>0888-3769;0029-4500</t>
+  </si>
+  <si>
+    <t>200;800</t>
+  </si>
+  <si>
+    <t>FID-AAC-DE-7;1;7,25;0;FID-REWI-DE-21</t>
+  </si>
+  <si>
+    <t>308983-6</t>
+  </si>
+  <si>
+    <t>16.1984 -</t>
+  </si>
+  <si>
+    <t>DE-7;DE-12</t>
+  </si>
+  <si>
+    <t>606836-4</t>
+  </si>
+  <si>
+    <t>Journal of feminist studies in religion</t>
+  </si>
+  <si>
+    <t>Indiana Univ. Press</t>
+  </si>
+  <si>
+    <t>Bloomington, Ind.</t>
+  </si>
+  <si>
+    <t>8755-4178</t>
+  </si>
+  <si>
+    <t>1.1985 -</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-12;DE-F42</t>
+  </si>
+  <si>
+    <t>1031806-9</t>
+  </si>
+  <si>
+    <t>Research in the social scientific study of religion</t>
+  </si>
+  <si>
+    <t>Brill</t>
+  </si>
+  <si>
+    <t>Leiden [u.a.]</t>
+  </si>
+  <si>
+    <t>1046-8064</t>
+  </si>
+  <si>
+    <t>200;300</t>
+  </si>
+  <si>
+    <t>1.1989 -</t>
+  </si>
+  <si>
+    <t>DE-12</t>
+  </si>
+  <si>
+    <t>1040079-5</t>
+  </si>
+  <si>
+    <t>Dialogue &amp; alliance</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>New York, NY</t>
+  </si>
+  <si>
+    <t>0891-5881</t>
+  </si>
+  <si>
+    <t>1.1987/88 -</t>
+  </si>
+  <si>
+    <t>1267453-9</t>
+  </si>
+  <si>
+    <t>Peʿamim</t>
+  </si>
+  <si>
+    <t>Makhon</t>
+  </si>
+  <si>
+    <t>Yerushalayim</t>
+  </si>
+  <si>
+    <t>heb</t>
+  </si>
+  <si>
+    <t>0334-4088</t>
+  </si>
+  <si>
+    <t>FID-JUDAICA-DE-30;7,6;0;FID-REWI-DE-21</t>
+  </si>
+  <si>
+    <t>Nr. 1.1979 -</t>
+  </si>
+  <si>
+    <t>DE-12;DE-30;DE-61</t>
+  </si>
+  <si>
+    <t>1273088-9</t>
+  </si>
+  <si>
+    <t>Journal of interdisciplinary studies</t>
+  </si>
+  <si>
+    <t>Institute for Interdisciplinary Research</t>
+  </si>
+  <si>
+    <t>Santa Monica, Calif.</t>
+  </si>
+  <si>
+    <t>0890-0132</t>
+  </si>
+  <si>
+    <t>DE-355</t>
+  </si>
+  <si>
+    <t>300073-4</t>
+  </si>
+  <si>
+    <t>Cahiers internationaux de symbolisme</t>
+  </si>
+  <si>
+    <t>Centre</t>
+  </si>
+  <si>
+    <t>Havré (Mons)</t>
+  </si>
+  <si>
+    <t>0008-0284</t>
+  </si>
+  <si>
+    <t>100;840;850;860;200</t>
+  </si>
+  <si>
+    <t>FID-PHILOS-DE-12;FID-ROM-DE-5;FID-REWI-DE-21;0;7,30</t>
+  </si>
+  <si>
+    <t>Nr. 1.1963 -</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-4;DE-5;DE-12;DE-16</t>
+  </si>
+  <si>
+    <t>302505-6</t>
+  </si>
+  <si>
+    <t>Parabola</t>
+  </si>
+  <si>
+    <t>Soc.</t>
+  </si>
+  <si>
+    <t>0362-1596</t>
+  </si>
+  <si>
+    <t>1.1976 -</t>
+  </si>
+  <si>
+    <t>302510-X</t>
+  </si>
+  <si>
+    <t>Religion and society</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>0034-3951</t>
+  </si>
+  <si>
+    <t>0;FID-ASIEN-DE-16;FID-REWI-DE-21</t>
+  </si>
+  <si>
+    <t>302509-3</t>
+  </si>
+  <si>
+    <t>5.1958 -</t>
+  </si>
+  <si>
+    <t>DE-19;DE-20;DE-361</t>
+  </si>
+  <si>
+    <t>302598-6</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>Los Angeles, Calif.</t>
+  </si>
+  <si>
+    <t>0012-2157</t>
+  </si>
+  <si>
+    <t>200;220;230</t>
+  </si>
+  <si>
+    <t>1441097-7</t>
+  </si>
+  <si>
+    <t>1.1966 -</t>
+  </si>
+  <si>
+    <t>303079-9</t>
+  </si>
+  <si>
+    <t>Islamochristiana</t>
+  </si>
+  <si>
+    <t>Ist.</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>ara;eng;fre</t>
+  </si>
+  <si>
+    <t>0392-7288</t>
+  </si>
+  <si>
+    <t>FID-REWI-DE-21;0;1;6,23</t>
+  </si>
+  <si>
+    <t>1.1975 -</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-7;DE-12;DE-F42;DE-89-19;DE-473;DE-547;DE-A99;DE-Freis2</t>
+  </si>
+  <si>
+    <t>303521-9</t>
+  </si>
+  <si>
+    <t>Quatuor Coronati</t>
+  </si>
+  <si>
+    <t>Salier Verlag;Bauhüttenverl.;Freimauerische Forschungsgesellschaft</t>
+  </si>
+  <si>
+    <t>Leipzig;Hamburg;Bayreuth</t>
+  </si>
+  <si>
+    <t>0171-1199</t>
+  </si>
+  <si>
+    <t>538776-0</t>
+  </si>
+  <si>
+    <t>Nr. 12.1975 -</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-6;DE-24;DE-35;DE-22;DE-703</t>
+  </si>
+  <si>
+    <t>304808-1</t>
+  </si>
+  <si>
+    <t>Conscience et liberté</t>
+  </si>
+  <si>
+    <t>Berne</t>
+  </si>
+  <si>
+    <t>0259-0360</t>
+  </si>
+  <si>
+    <t>200;070</t>
+  </si>
+  <si>
+    <t>Nr. 1.1971 -</t>
+  </si>
+  <si>
+    <t>307346-4</t>
+  </si>
+  <si>
+    <t>Faith and freedom</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>0014-701X</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 33.1979/80 - ; auch mit durchgehender Nr.-Zählung</t>
+  </si>
+  <si>
+    <t>1068959-X</t>
+  </si>
+  <si>
+    <t>Problèmes d'histoire des religions</t>
+  </si>
+  <si>
+    <t>Ed. de l'Univ.</t>
+  </si>
+  <si>
+    <t>Bruxelles</t>
+  </si>
+  <si>
+    <t>0778-6735</t>
+  </si>
+  <si>
+    <t>290;230;050</t>
+  </si>
+  <si>
+    <t>186146-3</t>
+  </si>
+  <si>
+    <t>1.1990 -</t>
+  </si>
+  <si>
+    <t>DE-5</t>
+  </si>
+  <si>
+    <t>2021761-4</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>The international journal for the psychology of religion</t>
+  </si>
+  <si>
+    <t>Routledge, Taylor &amp; Francis Group</t>
+  </si>
+  <si>
+    <t>1532-7582</t>
+  </si>
+  <si>
+    <t>5,2;0;FID-REWI-DE-21</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2021761;https://www.tandfonline.com/loi/hjpr20</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-3;DE-4;DE-7;DE-9;DE-12;DE-14;DE-15;DE-15-292;DE-16;DE-18;DE-M347;DE-19;DE-863;DE-862;DE-20;DE-24;DE-25;DE-Frei129;DE-27;DE-28;DE-29;DE-92;DE-946;DE-84;DE-89;DE-90;DE-93;DE-100;DE-180;DE-Sa18;DE-291;DE-352;DE-859;DE-517;DE-547;DE-705;DE-824;DE-573;DE-Ma9;DE-Luen4;DE-Ch1;DE-Gla1;DE-Pl11;DE-D161;DE-Rs1;DE-L229;DE-Bn3;DE-Brt1;DE-Wim2;DE-546;DE-752;DE-753;DE-972;DE-Lg1;DE-634;DE-Rt2;DE-944;DE-520;DE-Zwi2;DE-706;DE-L189;DE-F197;DE-1373;DE-Stg117;DE-Rt3;DE-751;DE-840;DE-Zi4</t>
+  </si>
+  <si>
+    <t>2024386-8</t>
+  </si>
+  <si>
+    <t>b;nl</t>
+  </si>
+  <si>
+    <t>Journal of beliefs and values</t>
+  </si>
+  <si>
+    <t>Routledge</t>
+  </si>
+  <si>
+    <t>Abingdon</t>
+  </si>
+  <si>
+    <t>1469-9362</t>
+  </si>
+  <si>
+    <t>200;370</t>
+  </si>
+  <si>
+    <t>5,3;0;FID-REWI-DE-21</t>
+  </si>
+  <si>
+    <t>1.1980 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2024386;https://www.tandfonline.com/loi/cjbv20;https://www.ingentaconnect.com/content/routledg/cjbv;https://www.tib.eu/de/openurl/search?issn=13617672&amp;eissn=14699362&amp;DlicenseModel=nl</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-8;DE-9;DE-14;DE-18;DE-19;DE-20;DE-Frei129;DE-946;DE-84;DE-89;DE-100;DE-352;DE-473;DE-517;DE-705;DE-Ma9;DE-Luen4;DE-Wim2;DE-546;DE-634;DE-Rt2;DE-944;DE-706;DE-F197;DE-1373;DE-840</t>
+  </si>
+  <si>
+    <t>2400948-9</t>
+  </si>
+  <si>
+    <t>Journal of religion in Europe</t>
+  </si>
+  <si>
+    <t>1874-8910</t>
+  </si>
+  <si>
+    <t>1.2008 -</t>
+  </si>
+  <si>
+    <t>DE-12;DE-19</t>
+  </si>
+  <si>
+    <t>2404244-4</t>
+  </si>
+  <si>
+    <t>Bandue</t>
+  </si>
+  <si>
+    <t>Ed. Trotta</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>spa</t>
+  </si>
+  <si>
+    <t>1888-346X</t>
+  </si>
+  <si>
+    <t>1.2007 -</t>
+  </si>
+  <si>
+    <t>2036957-8</t>
+  </si>
+  <si>
+    <t>b;nl;nk</t>
+  </si>
+  <si>
+    <t>Worldviews</t>
+  </si>
+  <si>
+    <t>1568-5357</t>
+  </si>
+  <si>
+    <t>290;300;200</t>
+  </si>
+  <si>
+    <t>1.1997 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2036957;https://brill.com/wo;https://brill.com/wo;https://www.jstor.org/journal/worldviews</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>DE-3;DE-4;DE-7;DE-8;DE-9;DE-12;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-18;DE-M347;DE-19;DE-210;DE-M352;DE-863;DE-862;DE-24;DE-25;DE-Frei129;DE-Frei160;DE-26;DE-27;DE-28;DE-29;DE-31;DE-43;DE-83;DE-84;DE-89;DE-90;DE-1028;DE-91;DE-93;DE-100;DE-105;DE-180;DE-289;DE-291;DE-Sa18;DE-352;DE-355;DE-384;DE-859;DE-70;DE-517;DE-547;DE-703;DE-705;DE-573;DE-Hil2;DE-Ma9;DE-Ma14;DE-Luen4;DE-Ch1;DE-Gla1;DE-Pl11;DE-D161;DE-Rs1;DE-Bn3;DE-L229;DE-Brt1;DE-Wim2;DE-Lg1;DE-634;DE-1090;DE-950;DE-944;DE-520;DE-Zwi2;DE-L189;DE-523;DE-751;DE-840;DE-Zi4</t>
+  </si>
+  <si>
+    <t>1324058-4</t>
+  </si>
+  <si>
+    <t>Religionen unterwegs</t>
+  </si>
+  <si>
+    <t>Kontaktstelle</t>
+  </si>
+  <si>
+    <t>Wien</t>
+  </si>
+  <si>
+    <t>1027-4103</t>
+  </si>
+  <si>
+    <t>230;290</t>
+  </si>
+  <si>
+    <t>1.1995 -</t>
+  </si>
+  <si>
+    <t>DE-Kn28;DE-A99</t>
+  </si>
+  <si>
+    <t>2041938-7</t>
+  </si>
+  <si>
+    <t>Numen</t>
+  </si>
+  <si>
+    <t>Leiden [u.a.];Köln</t>
+  </si>
+  <si>
+    <t>1568-5276</t>
+  </si>
+  <si>
+    <t>1.1954 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2041938;https://brill.com/nu;https://brill.com/nu;http://gateway.proquest.com/openurl?url_ver=Z39.88-2004&amp;res_dat=xri:pqm&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;genre=journal&amp;req_dat=xri:pqil:&amp;svc_dat=xri:pqil:context=title&amp;rft_dat=xri:pqd:PMID=1817927;https://www.jstor.org/journal/numen</t>
+  </si>
+  <si>
+    <t>NL;NL</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-4;DE-7;DE-8;DE-9;DE-12;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-18;DE-M347;DE-210;DE-19;DE-M352;DE-863;DE-862;DE-20;DE-24;DE-25;DE-Frei129;DE-Frei160;DE-26;DE-27;DE-28;DE-29;DE-31;DE-43;DE-83;DE-84;DE-89;DE-90;DE-91;DE-93;DE-100;DE-105;DE-180;DE-289;DE-291;DE-Sa18;DE-352;DE-355;DE-384;DE-859;DE-473;DE-70;DE-517;DE-521;DE-547;DE-703;DE-705;DE-739;DE-573;DE-Hil2;DE-Ma9;DE-Luen4;DE-Ch1;DE-Gla1;DE-Pl11;DE-D161;DE-Rs1;DE-Bn3;DE-L229;DE-Brt1;DE-Wim2;DE-Ki95;DE-Lg1;DE-634;DE-944;DE-520;DE-Zwi2;DE-706;DE-L189;DE-Stg117;DE-Rt3;DE-523;DE-751;DE-840;DE-Zi4</t>
+  </si>
+  <si>
+    <t>2418313-1</t>
+  </si>
+  <si>
+    <t>Leiden</t>
+  </si>
+  <si>
+    <t>1874-8929</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2418313;https://brill.com/jre;https://brill.com/jre</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>DE-1;DE-3-10;DE-12;DE-15;DE-16;DE-18;DE-29;DE-30;DE-703;DE-Kn28;DE-L228</t>
-  </si>
-  <si>
-    <t>4986-4</t>
-  </si>
-  <si>
-    <t>Studi e materiali di storia delle religioni</t>
-  </si>
-  <si>
-    <t>Morcelliana</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>ita</t>
-  </si>
-  <si>
-    <t>0081-6175;0393-8417;0036-1690</t>
-  </si>
-  <si>
-    <t>230;200</t>
-  </si>
-  <si>
-    <t>0;1;FID-REWI-DE-21</t>
-  </si>
-  <si>
-    <t>1.1925 - 3.1927; N.S.1=4.1928 - 6=9.1933; 10.1934 - 40.1969; N.S. 7=49.1983 - 32=74.2008; 75.2009 -</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>DE-1;DE-12;DE-24;DE-352</t>
-  </si>
-  <si>
-    <t>1086843-4</t>
-  </si>
-  <si>
-    <t>Studies in interreligious dialogue</t>
-  </si>
-  <si>
-    <t>Peeters</t>
-  </si>
-  <si>
-    <t>Louvain</t>
-  </si>
-  <si>
-    <t>0926-2326</t>
-  </si>
-  <si>
-    <t>200;290</t>
-  </si>
-  <si>
-    <t>FID-REWI-DE-21;0;6,23;1</t>
-  </si>
-  <si>
-    <t>1.1991 -</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-6;DE-12;DE-17;DE-H373;DE-19;DE-20;DE-25;DE-29;DE-466;DE-Kn28;DE-A99</t>
-  </si>
-  <si>
-    <t>9238-1</t>
-  </si>
-  <si>
-    <t>Materialien und Informationen zur Zeit</t>
-  </si>
-  <si>
-    <t>Alibri-Verl.</t>
-  </si>
-  <si>
-    <t>Aschaffenburg</t>
-  </si>
-  <si>
-    <t>0170-6748</t>
-  </si>
-  <si>
-    <t>0;FID-REWI-DE-21</t>
-  </si>
-  <si>
-    <t>[1.]1972; 2.1973 -</t>
-  </si>
-  <si>
-    <t>DE-4;DE-12;DE-15;DE-20</t>
-  </si>
-  <si>
-    <t>402975-6</t>
-  </si>
-  <si>
-    <t>Bulletin of the Nanzan Institute for Religion and Culture</t>
-  </si>
-  <si>
-    <t>Inst.</t>
-  </si>
-  <si>
-    <t>Nagoya</t>
-  </si>
-  <si>
-    <t>0386-720X</t>
-  </si>
-  <si>
-    <t>290;050;200</t>
-  </si>
-  <si>
-    <t>1.1977-no. 46 (2022)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>DE-1a</t>
-  </si>
-  <si>
-    <t>1097605-X</t>
-  </si>
-  <si>
-    <t>Wege ohne Dogma</t>
-  </si>
-  <si>
-    <t>Verl. Freireligiöse Verlagsbuchhandlung</t>
-  </si>
-  <si>
-    <t>Mannheim</t>
-  </si>
-  <si>
-    <t>0940-9394</t>
-  </si>
-  <si>
-    <t>070;200</t>
-  </si>
-  <si>
-    <t>192196-4;514996-4</t>
-  </si>
-  <si>
-    <t>1.1992 -</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>DE-4;DE-15;DE-M352;DE-31;DE-123;DE-107</t>
-  </si>
-  <si>
-    <t>18957-1</t>
-  </si>
-  <si>
-    <t>Journal of prehistoric religion</t>
-  </si>
-  <si>
-    <t>Åström</t>
-  </si>
-  <si>
-    <t>Uppsala</t>
-  </si>
-  <si>
-    <t>0283-8486</t>
-  </si>
-  <si>
-    <t>930;290</t>
-  </si>
-  <si>
-    <t>0;6,11;6,12;FID-REWI-DE-21</t>
-  </si>
-  <si>
-    <t>1.1987 -</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>DE-12;DE-16;DE-19;DE-20;DE-F36</t>
-  </si>
-  <si>
-    <t>417388-0</t>
-  </si>
-  <si>
-    <t>Orita</t>
-  </si>
-  <si>
-    <t>[Verlag nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>Ibadan</t>
-  </si>
-  <si>
-    <t>0030-5596</t>
-  </si>
-  <si>
-    <t>FID-NAHOST-DE-3;0;6,23;FID-AFRIKA-DE-30;FID-REWI-DE-21</t>
-  </si>
-  <si>
-    <t>1.1967-47, 1/2 (June&amp;December 2015) ; damit Erscheinen eingestellt</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>419233-3</t>
-  </si>
-  <si>
-    <t>The review of religions</t>
-  </si>
-  <si>
-    <t>Islamic Publications</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>0743-5622;0034-6721</t>
-  </si>
-  <si>
-    <t>290;200</t>
-  </si>
-  <si>
-    <t>FID-NAHOST-DE-3;1;6,23;0;FID-REWI-DE-21</t>
-  </si>
-  <si>
-    <t>1.1902 -</t>
-  </si>
-  <si>
-    <t>DE-3-1</t>
-  </si>
-  <si>
-    <t>428601-7</t>
-  </si>
-  <si>
-    <t>The Open court</t>
-  </si>
-  <si>
-    <t>1.1887 -</t>
-  </si>
-  <si>
-    <t>804907-5</t>
-  </si>
-  <si>
-    <t>b;rb</t>
-  </si>
-  <si>
-    <t>Theosophie heute</t>
-  </si>
-  <si>
-    <t>Theosophische Gesellschaft in Deutschland e.V.  c/o E. Köpp;MANAS-Verl.;Theosophische Ges.;Theosophische Ges. c/o C. Wegner</t>
-  </si>
-  <si>
-    <t>[Frankfurt];Dresden;Stuttgart;Berlin;Bochum</t>
-  </si>
-  <si>
-    <t>0177-8005</t>
-  </si>
-  <si>
-    <t>130;100;200</t>
-  </si>
-  <si>
-    <t>505247-6</t>
-  </si>
-  <si>
-    <t>32.1985 -</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>DE-15;DE-109</t>
-  </si>
-  <si>
-    <t>502529-1</t>
-  </si>
-  <si>
-    <t>Adyar</t>
-  </si>
-  <si>
-    <t>Theosophische Ges. Adyar in Deutschland</t>
-  </si>
-  <si>
-    <t>[Hamburg];Berlin</t>
-  </si>
-  <si>
-    <t>0001-9011</t>
-  </si>
-  <si>
-    <t>FID-REWI-DE-21;0;5,21</t>
-  </si>
-  <si>
-    <t>1.1946, Apr./Mai - 6.1950/51,4 = Nr. 1-31; 6.1950/51,5 - 52.1997; 61.2006 -</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>DE-15;DE-29;DE-46</t>
-  </si>
-  <si>
-    <t>95157-2</t>
-  </si>
-  <si>
-    <t>Diesseits</t>
-  </si>
-  <si>
-    <t>Humanistischer Verb. Deutschlands;Dt. Freidenker-Verb., Landesverb. Berlin</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>0932-6162</t>
-  </si>
-  <si>
-    <t>050;320;200</t>
-  </si>
-  <si>
-    <t>FID-REWI-DE-21;5,21;0;1</t>
-  </si>
-  <si>
-    <t>8675-7</t>
-  </si>
-  <si>
-    <t>[1.]1987 - [3.]1989 = Nr. 1-9; 4.1990=Nr. 10 -</t>
-  </si>
-  <si>
-    <t>518865-9</t>
-  </si>
-  <si>
-    <t>Gewissen und Freiheit</t>
-  </si>
-  <si>
-    <t>Internationale Vereinigung zur Verteidigung der Religionsfreiheit (IVVR);Internationale Vereinigung zur Verteidigung und Förderung der Religionsfreiheit</t>
-  </si>
-  <si>
-    <t>Bern, Schweiz;Bern</t>
-  </si>
-  <si>
-    <t>0259-0379</t>
-  </si>
-  <si>
-    <t>Nr. 1.1973 - 26.1986; Jg. 14.1986 - 23.1995/96 = Nr. 27-45; [24.]1996=Nr. 46/47; 25.1997=Nr. 48 - 50.2021; 2022=Nr. 77</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-H373;DE-20;DE-29;DE-1052;DE-38;DE-45;DE-46;DE-212;DE-37;DE-473;DE-703;DE-715;DE-824;DE-Hil2;DE-Va1;DE-Brg3;DE-Kn28;DE-752;DE-52;DE-Stg257;DE-Ka26</t>
-  </si>
-  <si>
-    <t>896062-8</t>
-  </si>
-  <si>
-    <t>Acta comparanda</t>
-  </si>
-  <si>
-    <t>FVG</t>
-  </si>
-  <si>
-    <t>Antwerpen</t>
-  </si>
-  <si>
-    <t>0779-9853</t>
-  </si>
-  <si>
-    <t>1.1984 -</t>
-  </si>
-  <si>
-    <t>896088-4</t>
-  </si>
-  <si>
-    <t>Religioni e società</t>
-  </si>
-  <si>
-    <t>Serra</t>
-  </si>
-  <si>
-    <t>Pisa;Roma</t>
-  </si>
-  <si>
-    <t>0394-9397</t>
-  </si>
-  <si>
-    <t>1.1986=Nr. 1 -</t>
-  </si>
-  <si>
-    <t>896097-5</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Cosmos</t>
-  </si>
-  <si>
-    <t>Edinburgh Univ. Press</t>
-  </si>
-  <si>
-    <t>Edinburgh</t>
-  </si>
-  <si>
-    <t>0269-8773</t>
-  </si>
-  <si>
-    <t>895991-2</t>
-  </si>
-  <si>
-    <t>1.1985(1986) -</t>
-  </si>
-  <si>
-    <t>896181-5</t>
-  </si>
-  <si>
-    <t>Chaos</t>
-  </si>
-  <si>
-    <t>Forlaget Chaos</t>
-  </si>
-  <si>
-    <t>København</t>
-  </si>
-  <si>
-    <t>0108-4453</t>
-  </si>
-  <si>
-    <t>1.1982 -</t>
-  </si>
-  <si>
-    <t>896519-5</t>
-  </si>
-  <si>
-    <t>Buddhist Christian studies</t>
-  </si>
-  <si>
-    <t>Univ. of Hawaii Press</t>
-  </si>
-  <si>
-    <t>Honolulu, Hawaii</t>
-  </si>
-  <si>
-    <t>0882-0945</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>FID-ASIEN-DE-1a;1;6,24;6,25;0;FID-REWI-DE-21</t>
-  </si>
-  <si>
-    <t>1.1981 -</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-A99</t>
-  </si>
-  <si>
-    <t>146527-2</t>
-  </si>
-  <si>
-    <t>Info3</t>
-  </si>
-  <si>
-    <t>Info-3-Verl.-Ges. Brüll &amp; Heisterkamp;Werkgroep Driegeleding;Georgenberg</t>
-  </si>
-  <si>
-    <t>Frankfurt, M.;Amsterdam;Reutlingen</t>
-  </si>
-  <si>
-    <t>1437-1898</t>
-  </si>
-  <si>
-    <t>FID-REWI-DE-21;5,21;0</t>
-  </si>
-  <si>
-    <t>1976 nachgewiesen; 1981 - 1982; 1998,10 - 2004,1; 29.2004,2 -</t>
-  </si>
-  <si>
-    <t>DE-15;DE-24;DE-25-122;DE-123;DE-858</t>
-  </si>
-  <si>
-    <t>538114-9</t>
-  </si>
-  <si>
-    <t>b;rb;mg</t>
-  </si>
-  <si>
-    <t>Humanität</t>
-  </si>
-  <si>
-    <t>Grossloge A.Fu.A.M von Deutschland</t>
-  </si>
-  <si>
-    <t>0721-8990</t>
-  </si>
-  <si>
-    <t>0;FID-REWI-DE-21;FID-GER-DE-30</t>
-  </si>
-  <si>
-    <t>1.1975 - 21.1995; 21.1996 - 23.1998; 25.1999 - 37.2011; 37.2012 - 39.2014; 41.2015 -</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>DE-4;DE-14;DE-26;DE-F42;DE-32;DE-35;DE-361;DE-468;DE-703;DE-51</t>
-  </si>
-  <si>
-    <t>967969-8</t>
-  </si>
-  <si>
-    <t>Japanese religions</t>
-  </si>
-  <si>
-    <t>Center</t>
-  </si>
-  <si>
-    <t>Kyoto</t>
-  </si>
-  <si>
-    <t>0448-8954</t>
-  </si>
-  <si>
-    <t>290;910;940</t>
-  </si>
-  <si>
-    <t>FID-ASIEN-DE-1a;6,25;0;FID-REWI-DE-21</t>
-  </si>
-  <si>
-    <t>1.1959/60 -</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-15;DE-19;DE-20</t>
-  </si>
-  <si>
-    <t>968066-4</t>
-  </si>
-  <si>
-    <t>Tenri journal of religion</t>
-  </si>
-  <si>
-    <t>Tenri University Press</t>
-  </si>
-  <si>
-    <t>Tenri</t>
-  </si>
-  <si>
-    <t>0495-1492</t>
-  </si>
-  <si>
-    <t>No. 1 (1955)-no. 48 (2020)</t>
-  </si>
-  <si>
-    <t>186759-3</t>
-  </si>
-  <si>
-    <t>Archives de sciences sociales des religions</t>
-  </si>
-  <si>
-    <t>Ed. de l'Ecole des Hautes Etudes en Sciences Sociales</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>fre;eng</t>
-  </si>
-  <si>
-    <t>0335-5985</t>
-  </si>
-  <si>
-    <t>FID-REWI-DE-21;0;1</t>
-  </si>
-  <si>
-    <t>541-1</t>
-  </si>
-  <si>
-    <t>18.1973=Nr. 35 -</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-8;DE-12;DE-15;DE-16;DE-46;DE-61;DE-352;DE-547;DE-Kn28</t>
-  </si>
-  <si>
-    <t>195883-5</t>
-  </si>
-  <si>
-    <t>Journal of Mormon history</t>
-  </si>
-  <si>
-    <t>University of Illinois Press;Mormon History Association</t>
-  </si>
-  <si>
-    <t>Champaign, Ill.;Provo, Utah</t>
-  </si>
-  <si>
-    <t>0094-7342</t>
-  </si>
-  <si>
-    <t>230;970;900;220</t>
-  </si>
-  <si>
-    <t>1.1974 -</t>
-  </si>
-  <si>
-    <t>202511-5</t>
-  </si>
-  <si>
-    <t>Symbolon</t>
-  </si>
-  <si>
-    <t>Lang-Ed.</t>
-  </si>
-  <si>
-    <t>Frankfurt, M.</t>
-  </si>
-  <si>
-    <t>0082-0660</t>
-  </si>
-  <si>
-    <t>730;920;390;200</t>
-  </si>
-  <si>
-    <t>0;FID-AVL-DE-30;FID-REWI-DE-21</t>
-  </si>
-  <si>
-    <t>1.1960 - 7.1971; N.F. 1.1972 -</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-5;DE-6;DE-7;DE-8;DE-14;DE-16;DE-17-2;DE-24;DE-25;DE-29;DE-31;DE-32;DE-61;DE-Tr2;DE-467;DE-22;DE-708;DE-739;DE-154;DE-824;DE-Kn28;DE-Stg117;DE-Kob7</t>
-  </si>
-  <si>
-    <t>205407-3</t>
-  </si>
-  <si>
-    <t>Revue des sciences religieuses</t>
-  </si>
-  <si>
-    <t>Université de Strasbourg;Palais Universitaire</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>fre</t>
-  </si>
-  <si>
-    <t>0035-2217</t>
-  </si>
-  <si>
-    <t>1;0;FID-REWI-DE-21</t>
-  </si>
-  <si>
-    <t>205409-7</t>
-  </si>
-  <si>
-    <t>1.1921 - 20.1940; 21.1947 -</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-5;DE-12;DE-16;DE-20;DE-24;DE-25;DE-F42;DE-46;DE-Tr2;DE-468;DE-Kn28</t>
-  </si>
-  <si>
-    <t>209821-0</t>
-  </si>
-  <si>
-    <t>Revue de l'histoire des religions</t>
-  </si>
-  <si>
-    <t>Colin</t>
-  </si>
-  <si>
-    <t>0765-6521;0035-1423</t>
-  </si>
-  <si>
-    <t>1.1880 - 196.1979 = Année 1-98; 197.1980 -</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>DE-1;DE-3-1;DE-3-10;DE-5;DE-8;DE-12;DE-15;DE-16;DE-18;DE-20;DE-29;DE-30;DE-46;DE-291;DE-352;DE-355;DE-473;DE-D40;DE-Kn28</t>
-  </si>
-  <si>
-    <t>591646-X</t>
-  </si>
-  <si>
-    <t>Religion &amp; literature</t>
-  </si>
-  <si>
-    <t>Dep.</t>
-  </si>
-  <si>
-    <t>Notre Dame, Ind.</t>
-  </si>
-  <si>
-    <t>0888-3769;0029-4500</t>
-  </si>
-  <si>
-    <t>200;800</t>
-  </si>
-  <si>
-    <t>FID-AAC-DE-7;1;7,25;0;FID-REWI-DE-21</t>
-  </si>
-  <si>
-    <t>308983-6</t>
-  </si>
-  <si>
-    <t>16.1984 -</t>
-  </si>
-  <si>
-    <t>DE-12</t>
-  </si>
-  <si>
-    <t>606836-4</t>
-  </si>
-  <si>
-    <t>Journal of feminist studies in religion</t>
-  </si>
-  <si>
-    <t>Indiana Univ. Press</t>
-  </si>
-  <si>
-    <t>Bloomington, Ind.</t>
-  </si>
-  <si>
-    <t>8755-4178</t>
-  </si>
-  <si>
-    <t>1.1985 -</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-12;DE-F42</t>
-  </si>
-  <si>
-    <t>1031806-9</t>
-  </si>
-  <si>
-    <t>Research in the social scientific study of religion</t>
-  </si>
-  <si>
-    <t>Brill</t>
-  </si>
-  <si>
-    <t>Leiden [u.a.]</t>
-  </si>
-  <si>
-    <t>1046-8064</t>
-  </si>
-  <si>
-    <t>200;300</t>
-  </si>
-  <si>
-    <t>1.1989 -</t>
-  </si>
-  <si>
-    <t>1040079-5</t>
-  </si>
-  <si>
-    <t>Dialogue &amp; alliance</t>
-  </si>
-  <si>
-    <t>Foundation</t>
-  </si>
-  <si>
-    <t>New York, NY</t>
-  </si>
-  <si>
-    <t>0891-5881</t>
-  </si>
-  <si>
-    <t>1.1987/88 -</t>
-  </si>
-  <si>
-    <t>1267453-9</t>
-  </si>
-  <si>
-    <t>Peʿamim</t>
-  </si>
-  <si>
-    <t>Makhon</t>
-  </si>
-  <si>
-    <t>Yerushalayim</t>
-  </si>
-  <si>
-    <t>heb</t>
-  </si>
-  <si>
-    <t>0334-4088</t>
-  </si>
-  <si>
-    <t>FID-JUDAICA-DE-30;7,6;0;FID-REWI-DE-21</t>
-  </si>
-  <si>
-    <t>Nr. 1.1979 -</t>
-  </si>
-  <si>
-    <t>DE-12;DE-30;DE-61</t>
-  </si>
-  <si>
-    <t>1273088-9</t>
-  </si>
-  <si>
-    <t>Journal of interdisciplinary studies</t>
-  </si>
-  <si>
-    <t>Institute for Interdisciplinary Research</t>
-  </si>
-  <si>
-    <t>Santa Monica, Calif.</t>
-  </si>
-  <si>
-    <t>0890-0132</t>
-  </si>
-  <si>
-    <t>DE-355</t>
-  </si>
-  <si>
-    <t>300073-4</t>
-  </si>
-  <si>
-    <t>Cahiers internationaux de symbolisme</t>
-  </si>
-  <si>
-    <t>Centre</t>
-  </si>
-  <si>
-    <t>Havré (Mons)</t>
-  </si>
-  <si>
-    <t>0008-0284</t>
-  </si>
-  <si>
-    <t>100;840;850;860;200</t>
-  </si>
-  <si>
-    <t>FID-PHILOS-DE-12;FID-ROM-DE-5;FID-REWI-DE-21;0;7,30</t>
-  </si>
-  <si>
-    <t>Nr. 1.1963 -</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-4;DE-5;DE-12;DE-16</t>
-  </si>
-  <si>
-    <t>302505-6</t>
-  </si>
-  <si>
-    <t>Parabola</t>
-  </si>
-  <si>
-    <t>Soc.</t>
-  </si>
-  <si>
-    <t>0362-1596</t>
-  </si>
-  <si>
-    <t>1.1976 -</t>
-  </si>
-  <si>
-    <t>302510-X</t>
-  </si>
-  <si>
-    <t>Religion and society</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>0034-3951</t>
-  </si>
-  <si>
-    <t>0;FID-ASIEN-DE-16;FID-REWI-DE-21</t>
-  </si>
-  <si>
-    <t>302509-3</t>
-  </si>
-  <si>
-    <t>5.1958 -</t>
-  </si>
-  <si>
-    <t>DE-19;DE-20;DE-361</t>
-  </si>
-  <si>
-    <t>302598-6</t>
-  </si>
-  <si>
-    <t>Dialogue</t>
-  </si>
-  <si>
-    <t>Los Angeles, Calif.</t>
-  </si>
-  <si>
-    <t>0012-2157</t>
-  </si>
-  <si>
-    <t>200;220;230</t>
-  </si>
-  <si>
-    <t>1441097-7</t>
-  </si>
-  <si>
-    <t>1.1966 -</t>
-  </si>
-  <si>
-    <t>303079-9</t>
-  </si>
-  <si>
-    <t>Islamochristiana</t>
-  </si>
-  <si>
-    <t>Ist.</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>ara;eng;fre</t>
-  </si>
-  <si>
-    <t>0392-7288</t>
-  </si>
-  <si>
-    <t>FID-REWI-DE-21;0;1;6,23</t>
-  </si>
-  <si>
-    <t>1.1975 -</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-12;DE-F42;DE-473;DE-A99;DE-Freis2</t>
-  </si>
-  <si>
-    <t>303521-9</t>
-  </si>
-  <si>
-    <t>Quatuor Coronati</t>
-  </si>
-  <si>
-    <t>Salier Verlag;Bauhüttenverl.;Freimauerische Forschungsgesellschaft</t>
-  </si>
-  <si>
-    <t>Leipzig;Hamburg;Bayreuth</t>
-  </si>
-  <si>
-    <t>0171-1199</t>
-  </si>
-  <si>
-    <t>538776-0</t>
-  </si>
-  <si>
-    <t>Nr. 12.1975 -</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-6;DE-24;DE-35;DE-22;DE-703</t>
-  </si>
-  <si>
-    <t>304808-1</t>
-  </si>
-  <si>
-    <t>Conscience et liberté</t>
-  </si>
-  <si>
-    <t>Berne</t>
-  </si>
-  <si>
-    <t>0259-0360</t>
-  </si>
-  <si>
-    <t>200;070</t>
-  </si>
-  <si>
-    <t>Nr. 1.1971 -</t>
-  </si>
-  <si>
-    <t>307346-4</t>
-  </si>
-  <si>
-    <t>Faith and freedom</t>
-  </si>
-  <si>
-    <t>College</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>0014-701X</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 33.1979/80 - ; auch mit durchgehender Nr.-Zählung</t>
-  </si>
-  <si>
-    <t>1068959-X</t>
-  </si>
-  <si>
-    <t>Problèmes d'histoire des religions</t>
-  </si>
-  <si>
-    <t>Ed. de l'Univ.</t>
-  </si>
-  <si>
-    <t>Bruxelles</t>
-  </si>
-  <si>
-    <t>0778-6735</t>
-  </si>
-  <si>
-    <t>290;230;050</t>
-  </si>
-  <si>
-    <t>186146-3</t>
-  </si>
-  <si>
-    <t>1.1990 -</t>
-  </si>
-  <si>
-    <t>DE-5</t>
-  </si>
-  <si>
-    <t>2021761-4</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>The international journal for the psychology of religion</t>
-  </si>
-  <si>
-    <t>Routledge, Taylor &amp; Francis Group</t>
-  </si>
-  <si>
-    <t>1532-7582</t>
-  </si>
-  <si>
-    <t>5,2;0;FID-REWI-DE-21</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2021761;https://www.tandfonline.com/loi/hjpr20</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-3;DE-4;DE-7;DE-9;DE-12;DE-14;DE-15;DE-15-292;DE-16;DE-18;DE-M347;DE-19;DE-863;DE-862;DE-20;DE-24;DE-25;DE-Frei129;DE-27;DE-28;DE-29;DE-92;DE-946;DE-84;DE-89;DE-90;DE-93;DE-100;DE-180;DE-Sa18;DE-291;DE-352;DE-859;DE-517;DE-547;DE-705;DE-824;DE-573;DE-Ma9;DE-Luen4;DE-Ch1;DE-Gla1;DE-Pl11;DE-D161;DE-Rs1;DE-L229;DE-Bn3;DE-Brt1;DE-Wim2;DE-546;DE-752;DE-753;DE-972;DE-Lg1;DE-634;DE-Rt2;DE-944;DE-520;DE-Zwi2;DE-706;DE-L189;DE-F197;DE-1373;DE-Stg117;DE-Rt3;DE-751;DE-840;DE-Zi4</t>
-  </si>
-  <si>
-    <t>2024386-8</t>
-  </si>
-  <si>
-    <t>b;nl</t>
-  </si>
-  <si>
-    <t>Journal of beliefs and values</t>
-  </si>
-  <si>
-    <t>Routledge</t>
-  </si>
-  <si>
-    <t>Abingdon</t>
-  </si>
-  <si>
-    <t>1469-9362</t>
-  </si>
-  <si>
-    <t>200;370</t>
-  </si>
-  <si>
-    <t>5,3;0;FID-REWI-DE-21</t>
-  </si>
-  <si>
-    <t>1.1980 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2024386;https://www.tandfonline.com/loi/cjbv20;https://www.ingentaconnect.com/content/routledg/cjbv;https://www.tib.eu/de/openurl/search?issn=13617672&amp;eissn=14699362&amp;DlicenseModel=nl</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>DE-3;DE-4;DE-8;DE-9;DE-14;DE-18;DE-19;DE-20;DE-Frei129;DE-946;DE-84;DE-89;DE-100;DE-352;DE-473;DE-517;DE-705;DE-Ma9;DE-Luen4;DE-Wim2;DE-546;DE-634;DE-Rt2;DE-944;DE-706;DE-F197;DE-1373;DE-840</t>
-  </si>
-  <si>
-    <t>2400948-9</t>
-  </si>
-  <si>
-    <t>Journal of religion in Europe</t>
-  </si>
-  <si>
-    <t>1874-8910</t>
-  </si>
-  <si>
-    <t>1.2008 -</t>
-  </si>
-  <si>
-    <t>DE-12;DE-19</t>
-  </si>
-  <si>
-    <t>2404244-4</t>
-  </si>
-  <si>
-    <t>Bandue</t>
-  </si>
-  <si>
-    <t>Ed. Trotta</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>spa</t>
-  </si>
-  <si>
-    <t>1888-346X</t>
-  </si>
-  <si>
-    <t>1.2007 -</t>
-  </si>
-  <si>
-    <t>2036957-8</t>
-  </si>
-  <si>
-    <t>b;nl;nk</t>
-  </si>
-  <si>
-    <t>Worldviews</t>
-  </si>
-  <si>
-    <t>1568-5357</t>
-  </si>
-  <si>
-    <t>290;300;200</t>
-  </si>
-  <si>
-    <t>1.1997 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2036957;https://brill.com/wo;https://brill.com/wo;https://www.jstor.org/journal/worldviews</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>DE-3;DE-4;DE-7;DE-8;DE-9;DE-12;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-18;DE-M347;DE-19;DE-210;DE-M352;DE-863;DE-862;DE-24;DE-25;DE-Frei129;DE-Frei160;DE-26;DE-27;DE-28;DE-29;DE-31;DE-43;DE-83;DE-84;DE-89;DE-90;DE-1028;DE-91;DE-93;DE-100;DE-105;DE-180;DE-289;DE-291;DE-Sa18;DE-352;DE-355;DE-384;DE-859;DE-70;DE-517;DE-547;DE-703;DE-705;DE-573;DE-Hil2;DE-Ma9;DE-Ma14;DE-Luen4;DE-Ch1;DE-Gla1;DE-Pl11;DE-D161;DE-Rs1;DE-Bn3;DE-L229;DE-Brt1;DE-Wim2;DE-Lg1;DE-634;DE-1090;DE-950;DE-944;DE-520;DE-Zwi2;DE-L189;DE-523;DE-751;DE-840;DE-Zi4</t>
-  </si>
-  <si>
-    <t>1324058-4</t>
-  </si>
-  <si>
-    <t>Religionen unterwegs</t>
-  </si>
-  <si>
-    <t>Kontaktstelle</t>
-  </si>
-  <si>
-    <t>Wien</t>
-  </si>
-  <si>
-    <t>1027-4103</t>
-  </si>
-  <si>
-    <t>230;290</t>
-  </si>
-  <si>
-    <t>1.1995 -</t>
-  </si>
-  <si>
-    <t>DE-Kn28;DE-A99</t>
-  </si>
-  <si>
-    <t>2041938-7</t>
-  </si>
-  <si>
-    <t>Numen</t>
-  </si>
-  <si>
-    <t>Leiden [u.a.];Köln</t>
-  </si>
-  <si>
-    <t>1568-5276</t>
-  </si>
-  <si>
-    <t>1.1954 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2041938;https://brill.com/nu;https://brill.com/nu;http://gateway.proquest.com/openurl?url_ver=Z39.88-2004&amp;res_dat=xri:pqm&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;genre=journal&amp;req_dat=xri:pqil:&amp;svc_dat=xri:pqil:context=title&amp;rft_dat=xri:pqd:PMID=1817927;https://www.jstor.org/journal/numen</t>
-  </si>
-  <si>
-    <t>NL;NL</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-4;DE-7;DE-8;DE-9;DE-12;DE-14;DE-15;DE-15-292;DE-16;DE-Ds114;DE-18;DE-M347;DE-210;DE-19;DE-M352;DE-863;DE-862;DE-20;DE-24;DE-25;DE-Frei129;DE-Frei160;DE-26;DE-27;DE-28;DE-29;DE-31;DE-43;DE-83;DE-84;DE-89;DE-90;DE-91;DE-93;DE-100;DE-105;DE-180;DE-289;DE-291;DE-Sa18;DE-352;DE-355;DE-384;DE-859;DE-473;DE-70;DE-517;DE-521;DE-547;DE-703;DE-705;DE-739;DE-573;DE-Hil2;DE-Ma9;DE-Luen4;DE-Ch1;DE-Gla1;DE-Pl11;DE-D161;DE-Rs1;DE-Bn3;DE-L229;DE-Brt1;DE-Wim2;DE-Ki95;DE-Lg1;DE-634;DE-944;DE-520;DE-Zwi2;DE-706;DE-L189;DE-Stg117;DE-Rt3;DE-523;DE-751;DE-840;DE-Zi4</t>
-  </si>
-  <si>
-    <t>2418313-1</t>
-  </si>
-  <si>
-    <t>Leiden</t>
-  </si>
-  <si>
-    <t>1874-8929</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2418313;https://brill.com/jre;https://brill.com/jre</t>
-  </si>
-  <si>
     <t>DE-4;DE-12;DE-15;DE-15-292;DE-19;DE-89;DE-Sa18;DE-291;DE-352;DE-547;DE-Hil2</t>
   </si>
   <si>
@@ -1789,9 +1798,6 @@
     <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2106386;https://muse.jhu.edu/journal/559;http://www.utpjournals.press/loi/jrpc</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>DE-4;DE-16;DE-18;DE-19;DE-24;DE-93;DE-Sa18;DE-291;DE-352;DE-473;DE-517;DE-521;DE-Hil2;DE-Luen4</t>
   </si>
   <si>
@@ -1954,6 +1960,9 @@
     <t>1.2009 -</t>
   </si>
   <si>
+    <t>DE-1a;DE-547</t>
+  </si>
+  <si>
     <t>2220480-5</t>
   </si>
   <si>
@@ -2119,6 +2128,9 @@
     <t>http://www.rtabst.org/;https://dbis.ur.de/frontdoor.php?titel_id=6536</t>
   </si>
   <si>
+    <t>DE-547</t>
+  </si>
+  <si>
     <t>2179936-2</t>
   </si>
   <si>
@@ -2257,7 +2269,7 @@
     <t>1.2010 -</t>
   </si>
   <si>
-    <t>DE-703;DE-Goe164</t>
+    <t>DE-703</t>
   </si>
   <si>
     <t>2010114-4</t>
@@ -2377,7 +2389,7 @@
     <t>Vol. 21, issue 1 (2021)-</t>
   </si>
   <si>
-    <t>DE-4;DE-12;DE-15;DE-24;DE-25-122;DE-31</t>
+    <t>DE-4;DE-7;DE-12;DE-15;DE-24;DE-25-122;DE-31</t>
   </si>
   <si>
     <t>2624106-7</t>
@@ -2816,9 +2828,6 @@
   </si>
   <si>
     <t>http://www.equinoxpub.com/journals/index.php/ARSR;http://www.bibliothek.uni-regensburg.de/ezeit/?2735270</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>DE-16;DE-M347;DE-19;DE-180;DE-291;DE-944;DE-Stg117;DE-Rt3;DE-840</t>
@@ -4612,15 +4621,15 @@
         <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -4629,13 +4638,13 @@
         <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -4644,7 +4653,7 @@
         <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J18" t="s">
         <v>72</v>
@@ -4671,7 +4680,7 @@
         <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S18" t="s">
         <v>32</v>
@@ -4689,15 +4698,15 @@
         <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -4706,13 +4715,13 @@
         <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -4721,7 +4730,7 @@
         <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
         <v>72</v>
@@ -4748,7 +4757,7 @@
         <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S19" t="s">
         <v>32</v>
@@ -4774,7 +4783,7 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -4783,13 +4792,13 @@
         <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
         <v>81</v>
@@ -4798,7 +4807,7 @@
         <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
         <v>72</v>
@@ -4825,7 +4834,7 @@
         <v>32</v>
       </c>
       <c r="R20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S20" t="s">
         <v>32</v>
@@ -4840,33 +4849,33 @@
         <v>39</v>
       </c>
       <c r="W20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="Y20" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
         <v>70</v>
@@ -4875,7 +4884,7 @@
         <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
         <v>72</v>
@@ -4899,10 +4908,10 @@
         <v>32</v>
       </c>
       <c r="Q21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="S21" t="s">
         <v>32</v>
@@ -4928,7 +4937,7 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -4937,13 +4946,13 @@
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -4952,7 +4961,7 @@
         <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
         <v>72</v>
@@ -4979,7 +4988,7 @@
         <v>32</v>
       </c>
       <c r="R22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S22" t="s">
         <v>32</v>
@@ -5005,7 +5014,7 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -5014,13 +5023,13 @@
         <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
@@ -5029,13 +5038,13 @@
         <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s">
         <v>32</v>
@@ -5056,7 +5065,7 @@
         <v>32</v>
       </c>
       <c r="R23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S23" t="s">
         <v>32</v>
@@ -5077,12 +5086,12 @@
         <v>164</v>
       </c>
       <c r="Y23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -5091,13 +5100,13 @@
         <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -5106,13 +5115,13 @@
         <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J24" t="s">
         <v>72</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
@@ -5133,7 +5142,7 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S24" t="s">
         <v>32</v>
@@ -5154,24 +5163,24 @@
         <v>133</v>
       </c>
       <c r="Y24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F25" t="s">
         <v>178</v>
@@ -5183,13 +5192,13 @@
         <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
         <v>72</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s">
         <v>32</v>
@@ -5210,7 +5219,7 @@
         <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S25" t="s">
         <v>32</v>
@@ -5228,15 +5237,15 @@
         <v>32</v>
       </c>
       <c r="X25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -5245,13 +5254,13 @@
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
         <v>70</v>
@@ -5260,13 +5269,13 @@
         <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
@@ -5287,7 +5296,7 @@
         <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S26" t="s">
         <v>32</v>
@@ -5308,12 +5317,12 @@
         <v>86</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -5322,13 +5331,13 @@
         <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -5337,7 +5346,7 @@
         <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
         <v>72</v>
@@ -5364,7 +5373,7 @@
         <v>32</v>
       </c>
       <c r="R27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="S27" t="s">
         <v>32</v>
@@ -5390,7 +5399,7 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -5399,28 +5408,28 @@
         <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E28" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J28" t="s">
         <v>72</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s">
         <v>32</v>
@@ -5438,10 +5447,10 @@
         <v>32</v>
       </c>
       <c r="Q28" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="R28" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="S28" t="s">
         <v>32</v>
@@ -5459,15 +5468,15 @@
         <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="Y28" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -5476,13 +5485,13 @@
         <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E29" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
         <v>70</v>
@@ -5491,13 +5500,13 @@
         <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s">
         <v>32</v>
@@ -5518,7 +5527,7 @@
         <v>32</v>
       </c>
       <c r="R29" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="S29" t="s">
         <v>32</v>
@@ -5544,7 +5553,7 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -5553,13 +5562,13 @@
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -5568,13 +5577,13 @@
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K30" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
@@ -5595,7 +5604,7 @@
         <v>32</v>
       </c>
       <c r="R30" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S30" t="s">
         <v>32</v>
@@ -5613,15 +5622,15 @@
         <v>32</v>
       </c>
       <c r="X30" t="s">
-        <v>284</v>
+        <v>191</v>
       </c>
       <c r="Y30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -5630,28 +5639,28 @@
         <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H31" t="s">
         <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J31" t="s">
         <v>72</v>
       </c>
       <c r="K31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s">
         <v>32</v>
@@ -5669,10 +5678,10 @@
         <v>32</v>
       </c>
       <c r="Q31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S31" t="s">
         <v>32</v>
@@ -5690,15 +5699,15 @@
         <v>32</v>
       </c>
       <c r="X31" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -5707,22 +5716,22 @@
         <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G32" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H32" t="s">
         <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J32" t="s">
         <v>72</v>
@@ -5749,7 +5758,7 @@
         <v>32</v>
       </c>
       <c r="R32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S32" t="s">
         <v>32</v>
@@ -5767,7 +5776,7 @@
         <v>32</v>
       </c>
       <c r="X32" t="s">
-        <v>301</v>
+        <v>191</v>
       </c>
       <c r="Y32" t="s">
         <v>302</v>
@@ -5844,7 +5853,7 @@
         <v>32</v>
       </c>
       <c r="X33" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="Y33" t="s">
         <v>312</v>
@@ -6001,12 +6010,12 @@
         <v>113</v>
       </c>
       <c r="Y35" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -6015,13 +6024,13 @@
         <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E36" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -6030,7 +6039,7 @@
         <v>32</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J36" t="s">
         <v>72</v>
@@ -6057,7 +6066,7 @@
         <v>32</v>
       </c>
       <c r="R36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S36" t="s">
         <v>32</v>
@@ -6078,12 +6087,12 @@
         <v>164</v>
       </c>
       <c r="Y36" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -6092,28 +6101,28 @@
         <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E37" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F37" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G37" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H37" t="s">
         <v>32</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J37" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s">
         <v>32</v>
@@ -6134,7 +6143,7 @@
         <v>32</v>
       </c>
       <c r="R37" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S37" t="s">
         <v>32</v>
@@ -6155,12 +6164,12 @@
         <v>173</v>
       </c>
       <c r="Y37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -6169,13 +6178,13 @@
         <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E38" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G38" t="s">
         <v>70</v>
@@ -6184,7 +6193,7 @@
         <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J38" t="s">
         <v>72</v>
@@ -6232,12 +6241,12 @@
         <v>113</v>
       </c>
       <c r="Y38" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -6246,13 +6255,13 @@
         <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E39" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F39" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -6261,13 +6270,13 @@
         <v>32</v>
       </c>
       <c r="I39" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J39" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K39" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s">
         <v>32</v>
@@ -6288,7 +6297,7 @@
         <v>32</v>
       </c>
       <c r="R39" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="S39" t="s">
         <v>32</v>
@@ -6309,12 +6318,12 @@
         <v>133</v>
       </c>
       <c r="Y39" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -6323,13 +6332,13 @@
         <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E40" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -6338,7 +6347,7 @@
         <v>32</v>
       </c>
       <c r="I40" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J40" t="s">
         <v>72</v>
@@ -6365,7 +6374,7 @@
         <v>32</v>
       </c>
       <c r="R40" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S40" t="s">
         <v>32</v>
@@ -6391,7 +6400,7 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -6400,13 +6409,13 @@
         <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E41" t="s">
         <v>108</v>
       </c>
       <c r="F41" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G41" t="s">
         <v>32</v>
@@ -6415,13 +6424,13 @@
         <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J41" t="s">
         <v>72</v>
       </c>
       <c r="K41" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s">
         <v>32</v>
@@ -6439,10 +6448,10 @@
         <v>32</v>
       </c>
       <c r="Q41" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R41" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="S41" t="s">
         <v>32</v>
@@ -6463,12 +6472,12 @@
         <v>173</v>
       </c>
       <c r="Y41" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -6477,13 +6486,13 @@
         <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -6492,10 +6501,10 @@
         <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K42" t="s">
         <v>73</v>
@@ -6516,10 +6525,10 @@
         <v>32</v>
       </c>
       <c r="Q42" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="S42" t="s">
         <v>32</v>
@@ -6545,7 +6554,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -6554,28 +6563,28 @@
         <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E43" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F43" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G43" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
       </c>
       <c r="I43" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J43" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K43" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s">
         <v>32</v>
@@ -6596,7 +6605,7 @@
         <v>32</v>
       </c>
       <c r="R43" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="S43" t="s">
         <v>32</v>
@@ -6614,15 +6623,15 @@
         <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>123</v>
+        <v>386</v>
       </c>
       <c r="Y43" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -6631,13 +6640,13 @@
         <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E44" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F44" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G44" t="s">
         <v>31</v>
@@ -6646,7 +6655,7 @@
         <v>32</v>
       </c>
       <c r="I44" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J44" t="s">
         <v>72</v>
@@ -6670,10 +6679,10 @@
         <v>32</v>
       </c>
       <c r="Q44" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="R44" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="S44" t="s">
         <v>32</v>
@@ -6694,12 +6703,12 @@
         <v>123</v>
       </c>
       <c r="Y44" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -6708,25 +6717,25 @@
         <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E45" t="s">
         <v>137</v>
       </c>
       <c r="F45" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G45" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H45" t="s">
         <v>32</v>
       </c>
       <c r="I45" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J45" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K45" t="s">
         <v>73</v>
@@ -6750,7 +6759,7 @@
         <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="S45" t="s">
         <v>32</v>
@@ -6776,7 +6785,7 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -6785,13 +6794,13 @@
         <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E46" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F46" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -6800,7 +6809,7 @@
         <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J46" t="s">
         <v>72</v>
@@ -6827,7 +6836,7 @@
         <v>32</v>
       </c>
       <c r="R46" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="S46" t="s">
         <v>32</v>
@@ -6853,34 +6862,34 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D47" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E47" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F47" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H47" t="s">
         <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J47" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K47" t="s">
         <v>73</v>
@@ -6901,10 +6910,10 @@
         <v>32</v>
       </c>
       <c r="Q47" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="R47" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="S47" t="s">
         <v>32</v>
@@ -6925,27 +6934,27 @@
         <v>113</v>
       </c>
       <c r="Y47" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B48" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C48" t="s">
         <v>66</v>
       </c>
       <c r="D48" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E48" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G48" t="s">
         <v>70</v>
@@ -6954,13 +6963,13 @@
         <v>32</v>
       </c>
       <c r="I48" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J48" t="s">
         <v>72</v>
       </c>
       <c r="K48" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L48" t="s">
         <v>32</v>
@@ -6984,7 +6993,7 @@
         <v>95</v>
       </c>
       <c r="S48" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="T48" t="s">
         <v>32</v>
@@ -6999,30 +7008,30 @@
         <v>32</v>
       </c>
       <c r="X48" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Y48" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B49" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C49" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D49" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E49" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F49" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G49" t="s">
         <v>70</v>
@@ -7031,13 +7040,13 @@
         <v>32</v>
       </c>
       <c r="I49" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J49" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K49" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L49" t="s">
         <v>32</v>
@@ -7058,13 +7067,13 @@
         <v>32</v>
       </c>
       <c r="R49" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="S49" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="T49" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="U49" t="s">
         <v>38</v>
@@ -7076,15 +7085,15 @@
         <v>32</v>
       </c>
       <c r="X49" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Y49" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -7093,7 +7102,7 @@
         <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E50" t="s">
         <v>322</v>
@@ -7108,7 +7117,7 @@
         <v>32</v>
       </c>
       <c r="I50" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J50" t="s">
         <v>72</v>
@@ -7135,7 +7144,7 @@
         <v>32</v>
       </c>
       <c r="R50" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="S50" t="s">
         <v>32</v>
@@ -7156,12 +7165,12 @@
         <v>164</v>
       </c>
       <c r="Y50" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -7170,22 +7179,22 @@
         <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E51" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F51" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G51" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H51" t="s">
         <v>32</v>
       </c>
       <c r="I51" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="J51" t="s">
         <v>72</v>
@@ -7212,7 +7221,7 @@
         <v>32</v>
       </c>
       <c r="R51" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="S51" t="s">
         <v>32</v>
@@ -7238,16 +7247,16 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B52" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C52" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D52" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E52" t="s">
         <v>322</v>
@@ -7262,10 +7271,10 @@
         <v>32</v>
       </c>
       <c r="I52" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J52" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K52" t="s">
         <v>103</v>
@@ -7289,13 +7298,13 @@
         <v>32</v>
       </c>
       <c r="R52" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="S52" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="T52" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="U52" t="s">
         <v>38</v>
@@ -7307,30 +7316,30 @@
         <v>32</v>
       </c>
       <c r="X52" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Y52" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D53" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E53" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F53" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -7339,10 +7348,10 @@
         <v>32</v>
       </c>
       <c r="I53" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J53" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K53" t="s">
         <v>103</v>
@@ -7366,7 +7375,7 @@
         <v>32</v>
       </c>
       <c r="R53" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="S53" t="s">
         <v>32</v>
@@ -7387,27 +7396,27 @@
         <v>164</v>
       </c>
       <c r="Y53" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B54" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C54" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D54" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E54" t="s">
         <v>322</v>
       </c>
       <c r="F54" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G54" t="s">
         <v>70</v>
@@ -7416,7 +7425,7 @@
         <v>32</v>
       </c>
       <c r="I54" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="J54" t="s">
         <v>72</v>
@@ -7443,13 +7452,13 @@
         <v>32</v>
       </c>
       <c r="R54" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="S54" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="T54" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="U54" t="s">
         <v>38</v>
@@ -7461,30 +7470,30 @@
         <v>32</v>
       </c>
       <c r="X54" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Y54" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B55" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C55" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D55" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E55" t="s">
         <v>322</v>
       </c>
       <c r="F55" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G55" t="s">
         <v>70</v>
@@ -7493,7 +7502,7 @@
         <v>32</v>
       </c>
       <c r="I55" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J55" t="s">
         <v>72</v>
@@ -7520,13 +7529,13 @@
         <v>32</v>
       </c>
       <c r="R55" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="S55" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T55" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="U55" t="s">
         <v>38</v>
@@ -7538,30 +7547,30 @@
         <v>32</v>
       </c>
       <c r="X55" t="s">
-        <v>75</v>
+        <v>481</v>
       </c>
       <c r="Y55" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B56" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C56" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D56" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E56" t="s">
         <v>322</v>
       </c>
       <c r="F56" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G56" t="s">
         <v>70</v>
@@ -7570,13 +7579,13 @@
         <v>32</v>
       </c>
       <c r="I56" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="J56" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K56" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L56" t="s">
         <v>32</v>
@@ -7597,13 +7606,13 @@
         <v>32</v>
       </c>
       <c r="R56" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="S56" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="T56" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="U56" t="s">
         <v>38</v>
@@ -7615,15 +7624,15 @@
         <v>32</v>
       </c>
       <c r="X56" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="Y56" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -7632,13 +7641,13 @@
         <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E57" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F57" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G57" t="s">
         <v>70</v>
@@ -7650,10 +7659,10 @@
         <v>32</v>
       </c>
       <c r="J57" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K57" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L57" t="s">
         <v>32</v>
@@ -7674,7 +7683,7 @@
         <v>32</v>
       </c>
       <c r="R57" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="S57" t="s">
         <v>32</v>
@@ -7695,12 +7704,12 @@
         <v>86</v>
       </c>
       <c r="Y57" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -7709,13 +7718,13 @@
         <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E58" t="s">
         <v>322</v>
       </c>
       <c r="F58" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G58" t="s">
         <v>70</v>
@@ -7724,13 +7733,13 @@
         <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="J58" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K58" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L58" t="s">
         <v>32</v>
@@ -7751,7 +7760,7 @@
         <v>32</v>
       </c>
       <c r="R58" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="S58" t="s">
         <v>32</v>
@@ -7772,27 +7781,27 @@
         <v>173</v>
       </c>
       <c r="Y58" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B59" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C59" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D59" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E59" t="s">
         <v>322</v>
       </c>
       <c r="F59" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G59" t="s">
         <v>70</v>
@@ -7801,13 +7810,13 @@
         <v>32</v>
       </c>
       <c r="I59" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="J59" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K59" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L59" t="s">
         <v>32</v>
@@ -7828,13 +7837,13 @@
         <v>32</v>
       </c>
       <c r="R59" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="S59" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="T59" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="U59" t="s">
         <v>38</v>
@@ -7846,30 +7855,30 @@
         <v>32</v>
       </c>
       <c r="X59" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="Y59" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B60" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C60" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D60" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E60" t="s">
         <v>322</v>
       </c>
       <c r="F60" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G60" t="s">
         <v>70</v>
@@ -7878,7 +7887,7 @@
         <v>32</v>
       </c>
       <c r="I60" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="J60" t="s">
         <v>72</v>
@@ -7908,10 +7917,10 @@
         <v>326</v>
       </c>
       <c r="S60" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="T60" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="U60" t="s">
         <v>38</v>
@@ -7923,30 +7932,30 @@
         <v>32</v>
       </c>
       <c r="X60" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Y60" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D61" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E61" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F61" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -7955,10 +7964,10 @@
         <v>32</v>
       </c>
       <c r="I61" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="J61" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K61" t="s">
         <v>73</v>
@@ -7982,7 +7991,7 @@
         <v>32</v>
       </c>
       <c r="R61" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="S61" t="s">
         <v>32</v>
@@ -8008,7 +8017,7 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -8017,13 +8026,13 @@
         <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E62" t="s">
         <v>322</v>
       </c>
       <c r="F62" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G62" t="s">
         <v>70</v>
@@ -8032,13 +8041,13 @@
         <v>32</v>
       </c>
       <c r="I62" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="J62" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K62" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L62" t="s">
         <v>32</v>
@@ -8059,7 +8068,7 @@
         <v>32</v>
       </c>
       <c r="R62" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="S62" t="s">
         <v>32</v>
@@ -8080,39 +8089,39 @@
         <v>173</v>
       </c>
       <c r="Y62" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B63" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C63" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D63" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E63" t="s">
         <v>322</v>
       </c>
       <c r="F63" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G63" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H63" t="s">
         <v>32</v>
       </c>
       <c r="I63" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="J63" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="K63" t="s">
         <v>103</v>
@@ -8136,13 +8145,13 @@
         <v>32</v>
       </c>
       <c r="R63" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="S63" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="T63" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="U63" t="s">
         <v>38</v>
@@ -8154,24 +8163,24 @@
         <v>32</v>
       </c>
       <c r="X63" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Y63" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B64" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C64" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D64" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E64" t="s">
         <v>322</v>
@@ -8180,19 +8189,19 @@
         <v>323</v>
       </c>
       <c r="G64" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H64" t="s">
         <v>32</v>
       </c>
       <c r="I64" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J64" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K64" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L64" t="s">
         <v>32</v>
@@ -8213,13 +8222,13 @@
         <v>32</v>
       </c>
       <c r="R64" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="S64" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="T64" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="U64" t="s">
         <v>38</v>
@@ -8231,15 +8240,15 @@
         <v>32</v>
       </c>
       <c r="X64" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Y64" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -8248,13 +8257,13 @@
         <v>66</v>
       </c>
       <c r="D65" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E65" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F65" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G65" t="s">
         <v>70</v>
@@ -8263,13 +8272,13 @@
         <v>32</v>
       </c>
       <c r="I65" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="J65" t="s">
         <v>72</v>
       </c>
       <c r="K65" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="L65" t="s">
         <v>32</v>
@@ -8287,10 +8296,10 @@
         <v>32</v>
       </c>
       <c r="Q65" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="R65" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="S65" t="s">
         <v>32</v>
@@ -8316,37 +8325,37 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D66" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E66" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F66" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G66" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H66" t="s">
         <v>32</v>
       </c>
       <c r="I66" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="J66" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K66" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="L66" t="s">
         <v>32</v>
@@ -8367,7 +8376,7 @@
         <v>32</v>
       </c>
       <c r="R66" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="S66" t="s">
         <v>32</v>
@@ -8388,27 +8397,27 @@
         <v>173</v>
       </c>
       <c r="Y66" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B67" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C67" t="s">
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E67" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F67" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G67" t="s">
         <v>70</v>
@@ -8417,7 +8426,7 @@
         <v>32</v>
       </c>
       <c r="I67" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="J67" t="s">
         <v>120</v>
@@ -8444,10 +8453,10 @@
         <v>32</v>
       </c>
       <c r="R67" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="S67" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="T67" t="s">
         <v>32</v>
@@ -8462,30 +8471,30 @@
         <v>32</v>
       </c>
       <c r="X67" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="Y67" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B68" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C68" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D68" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E68" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F68" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G68" t="s">
         <v>70</v>
@@ -8494,7 +8503,7 @@
         <v>32</v>
       </c>
       <c r="I68" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="J68" t="s">
         <v>72</v>
@@ -8521,10 +8530,10 @@
         <v>32</v>
       </c>
       <c r="R68" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="S68" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="T68" t="s">
         <v>32</v>
@@ -8539,30 +8548,30 @@
         <v>32</v>
       </c>
       <c r="X68" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="Y68" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B69" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C69" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D69" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E69" t="s">
         <v>322</v>
       </c>
       <c r="F69" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G69" t="s">
         <v>70</v>
@@ -8571,13 +8580,13 @@
         <v>32</v>
       </c>
       <c r="I69" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="J69" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K69" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="L69" t="s">
         <v>32</v>
@@ -8598,13 +8607,13 @@
         <v>32</v>
       </c>
       <c r="R69" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="S69" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="T69" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="U69" t="s">
         <v>38</v>
@@ -8616,30 +8625,30 @@
         <v>32</v>
       </c>
       <c r="X69" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="Y69" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B70" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C70" t="s">
         <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="E70" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F70" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="G70" t="s">
         <v>70</v>
@@ -8648,13 +8657,13 @@
         <v>32</v>
       </c>
       <c r="I70" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="J70" t="s">
         <v>120</v>
       </c>
       <c r="K70" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="L70" t="s">
         <v>32</v>
@@ -8675,10 +8684,10 @@
         <v>32</v>
       </c>
       <c r="R70" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="S70" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="T70" t="s">
         <v>32</v>
@@ -8693,15 +8702,15 @@
         <v>32</v>
       </c>
       <c r="X70" t="s">
-        <v>591</v>
+        <v>75</v>
       </c>
       <c r="Y70" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -8710,13 +8719,13 @@
         <v>66</v>
       </c>
       <c r="D71" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E71" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F71" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G71" t="s">
         <v>70</v>
@@ -8749,10 +8758,10 @@
         <v>32</v>
       </c>
       <c r="Q71" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="R71" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="S71" t="s">
         <v>32</v>
@@ -8778,7 +8787,7 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -8787,13 +8796,13 @@
         <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E72" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F72" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G72" t="s">
         <v>70</v>
@@ -8802,13 +8811,13 @@
         <v>32</v>
       </c>
       <c r="I72" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="J72" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K72" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L72" t="s">
         <v>32</v>
@@ -8829,7 +8838,7 @@
         <v>32</v>
       </c>
       <c r="R72" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="S72" t="s">
         <v>32</v>
@@ -8855,22 +8864,22 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B73" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C73" t="s">
         <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E73" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F73" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G73" t="s">
         <v>70</v>
@@ -8879,13 +8888,13 @@
         <v>32</v>
       </c>
       <c r="I73" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="J73" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K73" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L73" t="s">
         <v>32</v>
@@ -8906,10 +8915,10 @@
         <v>32</v>
       </c>
       <c r="R73" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="S73" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="T73" t="s">
         <v>32</v>
@@ -8924,30 +8933,30 @@
         <v>32</v>
       </c>
       <c r="X73" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Y73" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B74" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C74" t="s">
         <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E74" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F74" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G74" t="s">
         <v>70</v>
@@ -8956,13 +8965,13 @@
         <v>32</v>
       </c>
       <c r="I74" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="J74" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K74" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L74" t="s">
         <v>32</v>
@@ -8983,10 +8992,10 @@
         <v>32</v>
       </c>
       <c r="R74" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="S74" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="T74" t="s">
         <v>32</v>
@@ -9001,15 +9010,15 @@
         <v>32</v>
       </c>
       <c r="X74" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="Y74" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -9018,13 +9027,13 @@
         <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E75" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F75" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G75" t="s">
         <v>31</v>
@@ -9036,7 +9045,7 @@
         <v>32</v>
       </c>
       <c r="J75" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K75" t="s">
         <v>73</v>
@@ -9057,10 +9066,10 @@
         <v>32</v>
       </c>
       <c r="Q75" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="R75" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="S75" t="s">
         <v>32</v>
@@ -9081,12 +9090,12 @@
         <v>164</v>
       </c>
       <c r="Y75" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -9095,28 +9104,28 @@
         <v>66</v>
       </c>
       <c r="D76" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E76" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F76" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="G76" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H76" t="s">
         <v>32</v>
       </c>
       <c r="I76" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="J76" t="s">
         <v>83</v>
       </c>
       <c r="K76" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L76" t="s">
         <v>32</v>
@@ -9137,7 +9146,7 @@
         <v>32</v>
       </c>
       <c r="R76" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="S76" t="s">
         <v>32</v>
@@ -9158,12 +9167,12 @@
         <v>164</v>
       </c>
       <c r="Y76" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
@@ -9172,22 +9181,22 @@
         <v>66</v>
       </c>
       <c r="D77" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F77" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G77" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H77" t="s">
         <v>32</v>
       </c>
       <c r="I77" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="J77" t="s">
         <v>72</v>
@@ -9214,7 +9223,7 @@
         <v>32</v>
       </c>
       <c r="R77" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="S77" t="s">
         <v>32</v>
@@ -9232,15 +9241,15 @@
         <v>32</v>
       </c>
       <c r="X77" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="Y77" t="s">
-        <v>114</v>
+        <v>648</v>
       </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -9249,10 +9258,10 @@
         <v>66</v>
       </c>
       <c r="D78" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E78" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F78" t="s">
         <v>146</v>
@@ -9264,7 +9273,7 @@
         <v>32</v>
       </c>
       <c r="I78" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="J78" t="s">
         <v>72</v>
@@ -9291,7 +9300,7 @@
         <v>32</v>
       </c>
       <c r="R78" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="S78" t="s">
         <v>32</v>
@@ -9317,7 +9326,7 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -9326,13 +9335,13 @@
         <v>66</v>
       </c>
       <c r="D79" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E79" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F79" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="G79" t="s">
         <v>70</v>
@@ -9341,10 +9350,10 @@
         <v>32</v>
       </c>
       <c r="I79" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="J79" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="K79" t="s">
         <v>103</v>
@@ -9368,7 +9377,7 @@
         <v>32</v>
       </c>
       <c r="R79" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="S79" t="s">
         <v>32</v>
@@ -9389,12 +9398,12 @@
         <v>113</v>
       </c>
       <c r="Y79" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -9403,13 +9412,13 @@
         <v>66</v>
       </c>
       <c r="D80" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E80" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F80" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G80" t="s">
         <v>70</v>
@@ -9418,13 +9427,13 @@
         <v>32</v>
       </c>
       <c r="I80" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="J80" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K80" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="L80" t="s">
         <v>32</v>
@@ -9442,10 +9451,10 @@
         <v>32</v>
       </c>
       <c r="Q80" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="R80" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="S80" t="s">
         <v>32</v>
@@ -9471,10 +9480,10 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B81" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C81" t="s">
         <v>66</v>
@@ -9486,7 +9495,7 @@
         <v>90</v>
       </c>
       <c r="F81" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="G81" t="s">
         <v>70</v>
@@ -9495,13 +9504,13 @@
         <v>32</v>
       </c>
       <c r="I81" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="J81" t="s">
         <v>148</v>
       </c>
       <c r="K81" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="L81" t="s">
         <v>32</v>
@@ -9522,10 +9531,10 @@
         <v>32</v>
       </c>
       <c r="R81" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="S81" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="T81" t="s">
         <v>32</v>
@@ -9540,15 +9549,15 @@
         <v>32</v>
       </c>
       <c r="X81" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="Y81" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -9557,10 +9566,10 @@
         <v>66</v>
       </c>
       <c r="D82" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="E82" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F82" t="s">
         <v>146</v>
@@ -9572,7 +9581,7 @@
         <v>32</v>
       </c>
       <c r="I82" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="J82" t="s">
         <v>72</v>
@@ -9596,10 +9605,10 @@
         <v>32</v>
       </c>
       <c r="Q82" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="R82" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="S82" t="s">
         <v>32</v>
@@ -9620,24 +9629,24 @@
         <v>164</v>
       </c>
       <c r="Y82" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B83" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C83" t="s">
         <v>66</v>
       </c>
       <c r="D83" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="E83" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F83" t="s">
         <v>146</v>
@@ -9649,7 +9658,7 @@
         <v>32</v>
       </c>
       <c r="I83" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="J83" t="s">
         <v>72</v>
@@ -9673,13 +9682,13 @@
         <v>32</v>
       </c>
       <c r="Q83" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="R83" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="S83" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="T83" t="s">
         <v>32</v>
@@ -9697,24 +9706,24 @@
         <v>52</v>
       </c>
       <c r="Y83" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B84" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C84" t="s">
         <v>66</v>
       </c>
       <c r="D84" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E84" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F84" t="s">
         <v>146</v>
@@ -9726,7 +9735,7 @@
         <v>32</v>
       </c>
       <c r="I84" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="J84" t="s">
         <v>72</v>
@@ -9753,10 +9762,10 @@
         <v>32</v>
       </c>
       <c r="R84" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="S84" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="T84" t="s">
         <v>32</v>
@@ -9774,27 +9783,27 @@
         <v>52</v>
       </c>
       <c r="Y84" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B85" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C85" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D85" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="E85" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F85" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G85" t="s">
         <v>70</v>
@@ -9803,10 +9812,10 @@
         <v>32</v>
       </c>
       <c r="I85" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="J85" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K85" t="s">
         <v>103</v>
@@ -9830,13 +9839,13 @@
         <v>32</v>
       </c>
       <c r="R85" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="S85" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="T85" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="U85" t="s">
         <v>38</v>
@@ -9848,30 +9857,30 @@
         <v>32</v>
       </c>
       <c r="X85" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="Y85" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B86" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C86" t="s">
         <v>66</v>
       </c>
       <c r="D86" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="E86" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="F86" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="G86" t="s">
         <v>70</v>
@@ -9880,13 +9889,13 @@
         <v>32</v>
       </c>
       <c r="I86" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="J86" t="s">
         <v>83</v>
       </c>
       <c r="K86" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="L86" t="s">
         <v>32</v>
@@ -9907,10 +9916,10 @@
         <v>32</v>
       </c>
       <c r="R86" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="S86" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="T86" t="s">
         <v>32</v>
@@ -9925,30 +9934,30 @@
         <v>32</v>
       </c>
       <c r="X86" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="Y86" t="s">
-        <v>32</v>
+        <v>704</v>
       </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B87" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C87" t="s">
         <v>66</v>
       </c>
       <c r="D87" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="E87" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F87" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G87" t="s">
         <v>70</v>
@@ -9957,7 +9966,7 @@
         <v>32</v>
       </c>
       <c r="I87" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="J87" t="s">
         <v>93</v>
@@ -9984,10 +9993,10 @@
         <v>32</v>
       </c>
       <c r="R87" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="S87" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="T87" t="s">
         <v>32</v>
@@ -10002,30 +10011,30 @@
         <v>32</v>
       </c>
       <c r="X87" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="Y87" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B88" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C88" t="s">
         <v>66</v>
       </c>
       <c r="D88" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="E88" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F88" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G88" t="s">
         <v>70</v>
@@ -10034,7 +10043,7 @@
         <v>32</v>
       </c>
       <c r="I88" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="J88" t="s">
         <v>83</v>
@@ -10058,13 +10067,13 @@
         <v>32</v>
       </c>
       <c r="Q88" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="R88" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="S88" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="T88" t="s">
         <v>32</v>
@@ -10079,30 +10088,30 @@
         <v>32</v>
       </c>
       <c r="X88" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Y88" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D89" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E89" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="F89" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="G89" t="s">
         <v>31</v>
@@ -10117,7 +10126,7 @@
         <v>83</v>
       </c>
       <c r="K89" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L89" t="s">
         <v>32</v>
@@ -10135,10 +10144,10 @@
         <v>32</v>
       </c>
       <c r="Q89" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="R89" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="S89" t="s">
         <v>32</v>
@@ -10159,42 +10168,42 @@
         <v>113</v>
       </c>
       <c r="Y89" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B90" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C90" t="s">
         <v>66</v>
       </c>
       <c r="D90" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="E90" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="F90" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="G90" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="H90" t="s">
         <v>32</v>
       </c>
       <c r="I90" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="J90" t="s">
         <v>72</v>
       </c>
       <c r="K90" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="L90" t="s">
         <v>32</v>
@@ -10215,10 +10224,10 @@
         <v>32</v>
       </c>
       <c r="R90" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="S90" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="T90" t="s">
         <v>32</v>
@@ -10236,12 +10245,12 @@
         <v>113</v>
       </c>
       <c r="Y90" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -10250,13 +10259,13 @@
         <v>43</v>
       </c>
       <c r="D91" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E91" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="F91" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="G91" t="s">
         <v>31</v>
@@ -10265,13 +10274,13 @@
         <v>32</v>
       </c>
       <c r="I91" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="J91" t="s">
         <v>72</v>
       </c>
       <c r="K91" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="L91" t="s">
         <v>32</v>
@@ -10292,7 +10301,7 @@
         <v>32</v>
       </c>
       <c r="R91" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="S91" t="s">
         <v>32</v>
@@ -10310,15 +10319,15 @@
         <v>32</v>
       </c>
       <c r="X91" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="Y91" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
@@ -10327,7 +10336,7 @@
         <v>66</v>
       </c>
       <c r="D92" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="E92" t="s">
         <v>322</v>
@@ -10342,13 +10351,13 @@
         <v>32</v>
       </c>
       <c r="I92" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="J92" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="K92" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="L92" t="s">
         <v>32</v>
@@ -10369,7 +10378,7 @@
         <v>32</v>
       </c>
       <c r="R92" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="S92" t="s">
         <v>32</v>
@@ -10387,15 +10396,15 @@
         <v>32</v>
       </c>
       <c r="X92" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="Y92" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
@@ -10404,13 +10413,13 @@
         <v>43</v>
       </c>
       <c r="D93" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="E93" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="F93" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="G93" t="s">
         <v>31</v>
@@ -10419,13 +10428,13 @@
         <v>32</v>
       </c>
       <c r="I93" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="J93" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K93" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="L93" t="s">
         <v>32</v>
@@ -10446,7 +10455,7 @@
         <v>32</v>
       </c>
       <c r="R93" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="S93" t="s">
         <v>32</v>
@@ -10464,45 +10473,45 @@
         <v>32</v>
       </c>
       <c r="X93" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Y93" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B94" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C94" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D94" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E94" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F94" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G94" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H94" t="s">
         <v>32</v>
       </c>
       <c r="I94" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="J94" t="s">
         <v>72</v>
       </c>
       <c r="K94" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="L94" t="s">
         <v>32</v>
@@ -10523,13 +10532,13 @@
         <v>32</v>
       </c>
       <c r="R94" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S94" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="T94" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="U94" t="s">
         <v>38</v>
@@ -10541,30 +10550,30 @@
         <v>32</v>
       </c>
       <c r="X94" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="Y94" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B95" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C95" t="s">
         <v>66</v>
       </c>
       <c r="D95" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="E95" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F95" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="G95" t="s">
         <v>70</v>
@@ -10573,7 +10582,7 @@
         <v>32</v>
       </c>
       <c r="I95" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J95" t="s">
         <v>72</v>
@@ -10597,13 +10606,13 @@
         <v>32</v>
       </c>
       <c r="Q95" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="R95" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="S95" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="T95" t="s">
         <v>32</v>
@@ -10618,30 +10627,30 @@
         <v>32</v>
       </c>
       <c r="X95" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Y95" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B96" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C96" t="s">
         <v>66</v>
       </c>
       <c r="D96" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E96" t="s">
         <v>322</v>
       </c>
       <c r="F96" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="G96" t="s">
         <v>70</v>
@@ -10650,13 +10659,13 @@
         <v>32</v>
       </c>
       <c r="I96" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="J96" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K96" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="L96" t="s">
         <v>32</v>
@@ -10677,10 +10686,10 @@
         <v>32</v>
       </c>
       <c r="R96" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="S96" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="T96" t="s">
         <v>32</v>
@@ -10698,12 +10707,12 @@
         <v>164</v>
       </c>
       <c r="Y96" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
@@ -10712,25 +10721,25 @@
         <v>156</v>
       </c>
       <c r="D97" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="E97" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="F97" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="G97" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H97" t="s">
         <v>32</v>
       </c>
       <c r="I97" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="J97" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="K97" t="s">
         <v>73</v>
@@ -10751,10 +10760,10 @@
         <v>32</v>
       </c>
       <c r="Q97" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="R97" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="S97" t="s">
         <v>32</v>
@@ -10772,30 +10781,30 @@
         <v>32</v>
       </c>
       <c r="X97" t="s">
-        <v>123</v>
+        <v>743</v>
       </c>
       <c r="Y97" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B98" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C98" t="s">
         <v>66</v>
       </c>
       <c r="D98" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="E98" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F98" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G98" t="s">
         <v>70</v>
@@ -10804,13 +10813,13 @@
         <v>32</v>
       </c>
       <c r="I98" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="J98" t="s">
         <v>72</v>
       </c>
       <c r="K98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L98" t="s">
         <v>32</v>
@@ -10831,10 +10840,10 @@
         <v>32</v>
       </c>
       <c r="R98" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="S98" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="T98" t="s">
         <v>32</v>
@@ -10849,30 +10858,30 @@
         <v>32</v>
       </c>
       <c r="X98" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Y98" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B99" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C99" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D99" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="E99" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="F99" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G99" t="s">
         <v>70</v>
@@ -10908,13 +10917,13 @@
         <v>32</v>
       </c>
       <c r="R99" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="S99" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="T99" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="U99" t="s">
         <v>32</v>
@@ -10929,12 +10938,12 @@
         <v>86</v>
       </c>
       <c r="Y99" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B100" t="s">
         <v>26</v>
@@ -10943,13 +10952,13 @@
         <v>66</v>
       </c>
       <c r="D100" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="E100" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="F100" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G100" t="s">
         <v>70</v>
@@ -10958,10 +10967,10 @@
         <v>32</v>
       </c>
       <c r="I100" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="J100" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="K100" t="s">
         <v>103</v>
@@ -10982,10 +10991,10 @@
         <v>32</v>
       </c>
       <c r="Q100" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="R100" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="S100" t="s">
         <v>32</v>
@@ -11011,7 +11020,7 @@
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
@@ -11020,13 +11029,13 @@
         <v>66</v>
       </c>
       <c r="D101" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="E101" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="F101" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="G101" t="s">
         <v>70</v>
@@ -11038,10 +11047,10 @@
         <v>32</v>
       </c>
       <c r="J101" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K101" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="L101" t="s">
         <v>32</v>
@@ -11062,7 +11071,7 @@
         <v>32</v>
       </c>
       <c r="R101" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="S101" t="s">
         <v>32</v>
@@ -11088,22 +11097,22 @@
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B102" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C102" t="s">
         <v>66</v>
       </c>
       <c r="D102" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E102" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="F102" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="G102" t="s">
         <v>70</v>
@@ -11112,13 +11121,13 @@
         <v>32</v>
       </c>
       <c r="I102" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="J102" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="K102" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="L102" t="s">
         <v>32</v>
@@ -11139,13 +11148,13 @@
         <v>32</v>
       </c>
       <c r="R102" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="S102" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="T102" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="U102" t="s">
         <v>38</v>
@@ -11157,30 +11166,30 @@
         <v>32</v>
       </c>
       <c r="X102" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Y102" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B103" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C103" t="s">
         <v>66</v>
       </c>
       <c r="D103" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="E103" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="F103" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="G103" t="s">
         <v>70</v>
@@ -11189,7 +11198,7 @@
         <v>32</v>
       </c>
       <c r="I103" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="J103" t="s">
         <v>72</v>
@@ -11216,10 +11225,10 @@
         <v>32</v>
       </c>
       <c r="R103" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="S103" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="T103" t="s">
         <v>32</v>
@@ -11237,27 +11246,27 @@
         <v>52</v>
       </c>
       <c r="Y103" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B104" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C104" t="s">
         <v>66</v>
       </c>
       <c r="D104" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="E104" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="F104" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G104" t="s">
         <v>70</v>
@@ -11266,7 +11275,7 @@
         <v>32</v>
       </c>
       <c r="I104" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="J104" t="s">
         <v>72</v>
@@ -11293,10 +11302,10 @@
         <v>32</v>
       </c>
       <c r="R104" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="S104" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="T104" t="s">
         <v>32</v>
@@ -11311,15 +11320,15 @@
         <v>32</v>
       </c>
       <c r="X104" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Y104" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B105" t="s">
         <v>26</v>
@@ -11328,13 +11337,13 @@
         <v>66</v>
       </c>
       <c r="D105" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="E105" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="F105" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G105" t="s">
         <v>70</v>
@@ -11343,7 +11352,7 @@
         <v>32</v>
       </c>
       <c r="I105" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="J105" t="s">
         <v>72</v>
@@ -11370,7 +11379,7 @@
         <v>32</v>
       </c>
       <c r="R105" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="S105" t="s">
         <v>32</v>
@@ -11391,12 +11400,12 @@
         <v>113</v>
       </c>
       <c r="Y105" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="B106" t="s">
         <v>26</v>
@@ -11405,13 +11414,13 @@
         <v>66</v>
       </c>
       <c r="D106" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="E106" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="F106" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="G106" t="s">
         <v>70</v>
@@ -11420,10 +11429,10 @@
         <v>32</v>
       </c>
       <c r="I106" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="J106" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="K106" t="s">
         <v>103</v>
@@ -11444,10 +11453,10 @@
         <v>32</v>
       </c>
       <c r="Q106" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="R106" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="S106" t="s">
         <v>32</v>
@@ -11468,27 +11477,27 @@
         <v>113</v>
       </c>
       <c r="Y106" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B107" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C107" t="s">
         <v>66</v>
       </c>
       <c r="D107" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="E107" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="F107" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G107" t="s">
         <v>70</v>
@@ -11497,13 +11506,13 @@
         <v>32</v>
       </c>
       <c r="I107" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="J107" t="s">
         <v>72</v>
       </c>
       <c r="K107" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L107" t="s">
         <v>32</v>
@@ -11524,10 +11533,10 @@
         <v>32</v>
       </c>
       <c r="R107" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="S107" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="T107" t="s">
         <v>32</v>
@@ -11550,7 +11559,7 @@
     </row>
     <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B108" t="s">
         <v>26</v>
@@ -11559,13 +11568,13 @@
         <v>43</v>
       </c>
       <c r="D108" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="E108" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="F108" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="G108" t="s">
         <v>31</v>
@@ -11574,13 +11583,13 @@
         <v>32</v>
       </c>
       <c r="I108" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="J108" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="K108" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="L108" t="s">
         <v>32</v>
@@ -11598,10 +11607,10 @@
         <v>32</v>
       </c>
       <c r="Q108" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="R108" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="S108" t="s">
         <v>32</v>
@@ -11622,27 +11631,27 @@
         <v>173</v>
       </c>
       <c r="Y108" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="B109" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C109" t="s">
         <v>66</v>
       </c>
       <c r="D109" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E109" t="s">
         <v>322</v>
       </c>
       <c r="F109" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G109" t="s">
         <v>70</v>
@@ -11651,13 +11660,13 @@
         <v>32</v>
       </c>
       <c r="I109" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="J109" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="K109" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="L109" t="s">
         <v>32</v>
@@ -11678,10 +11687,10 @@
         <v>32</v>
       </c>
       <c r="R109" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="S109" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="T109" t="s">
         <v>32</v>
@@ -11696,30 +11705,30 @@
         <v>32</v>
       </c>
       <c r="X109" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Y109" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="B110" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C110" t="s">
         <v>66</v>
       </c>
       <c r="D110" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="E110" t="s">
         <v>322</v>
       </c>
       <c r="F110" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G110" t="s">
         <v>70</v>
@@ -11728,13 +11737,13 @@
         <v>32</v>
       </c>
       <c r="I110" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="J110" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K110" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L110" t="s">
         <v>32</v>
@@ -11755,10 +11764,10 @@
         <v>32</v>
       </c>
       <c r="R110" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="S110" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="T110" t="s">
         <v>32</v>
@@ -11781,22 +11790,22 @@
     </row>
     <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B111" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C111" t="s">
         <v>66</v>
       </c>
       <c r="D111" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E111" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="F111" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G111" t="s">
         <v>70</v>
@@ -11805,7 +11814,7 @@
         <v>32</v>
       </c>
       <c r="I111" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="J111" t="s">
         <v>72</v>
@@ -11832,10 +11841,10 @@
         <v>32</v>
       </c>
       <c r="R111" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="S111" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="T111" t="s">
         <v>32</v>
@@ -11853,12 +11862,12 @@
         <v>123</v>
       </c>
       <c r="Y111" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="B112" t="s">
         <v>26</v>
@@ -11867,22 +11876,22 @@
         <v>66</v>
       </c>
       <c r="D112" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="E112" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="F112" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="G112" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H112" t="s">
         <v>32</v>
       </c>
       <c r="I112" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="J112" t="s">
         <v>325</v>
@@ -11909,7 +11918,7 @@
         <v>32</v>
       </c>
       <c r="R112" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="S112" t="s">
         <v>32</v>
@@ -11930,12 +11939,12 @@
         <v>164</v>
       </c>
       <c r="Y112" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="113" spans="1:25">
       <c r="A113" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="B113" t="s">
         <v>26</v>
@@ -11944,13 +11953,13 @@
         <v>66</v>
       </c>
       <c r="D113" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="E113" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="F113" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="G113" t="s">
         <v>70</v>
@@ -11959,10 +11968,10 @@
         <v>32</v>
       </c>
       <c r="I113" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="J113" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K113" t="s">
         <v>73</v>
@@ -11986,7 +11995,7 @@
         <v>32</v>
       </c>
       <c r="R113" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="S113" t="s">
         <v>32</v>
@@ -12012,7 +12021,7 @@
     </row>
     <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="B114" t="s">
         <v>26</v>
@@ -12021,13 +12030,13 @@
         <v>66</v>
       </c>
       <c r="D114" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="E114" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="F114" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="G114" t="s">
         <v>70</v>
@@ -12036,13 +12045,13 @@
         <v>32</v>
       </c>
       <c r="I114" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="J114" t="s">
         <v>72</v>
       </c>
       <c r="K114" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L114" t="s">
         <v>32</v>
@@ -12063,7 +12072,7 @@
         <v>32</v>
       </c>
       <c r="R114" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="S114" t="s">
         <v>32</v>
@@ -12089,22 +12098,22 @@
     </row>
     <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B115" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C115" t="s">
         <v>66</v>
       </c>
       <c r="D115" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E115" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="F115" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G115" t="s">
         <v>70</v>
@@ -12113,13 +12122,13 @@
         <v>32</v>
       </c>
       <c r="I115" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="J115" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K115" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="L115" t="s">
         <v>32</v>
@@ -12140,10 +12149,10 @@
         <v>32</v>
       </c>
       <c r="R115" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="S115" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="T115" t="s">
         <v>32</v>
@@ -12158,15 +12167,15 @@
         <v>32</v>
       </c>
       <c r="X115" t="s">
-        <v>75</v>
+        <v>481</v>
       </c>
       <c r="Y115" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B116" t="s">
         <v>26</v>
@@ -12175,13 +12184,13 @@
         <v>66</v>
       </c>
       <c r="D116" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E116" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="F116" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="G116" t="s">
         <v>70</v>
@@ -12190,10 +12199,10 @@
         <v>32</v>
       </c>
       <c r="I116" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="J116" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K116" t="s">
         <v>103</v>
@@ -12217,7 +12226,7 @@
         <v>32</v>
       </c>
       <c r="R116" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="S116" t="s">
         <v>32</v>
@@ -12243,22 +12252,22 @@
     </row>
     <row r="117" spans="1:25">
       <c r="A117" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="B117" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C117" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D117" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="E117" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="F117" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="G117" t="s">
         <v>70</v>
@@ -12270,10 +12279,10 @@
         <v>32</v>
       </c>
       <c r="J117" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="K117" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="L117" t="s">
         <v>32</v>
@@ -12297,10 +12306,10 @@
         <v>32</v>
       </c>
       <c r="S117" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="T117" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="U117" t="s">
         <v>32</v>
@@ -12320,22 +12329,22 @@
     </row>
     <row r="118" spans="1:25">
       <c r="A118" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B118" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C118" t="s">
         <v>66</v>
       </c>
       <c r="D118" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E118" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="F118" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G118" t="s">
         <v>70</v>
@@ -12344,13 +12353,13 @@
         <v>32</v>
       </c>
       <c r="I118" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="J118" t="s">
         <v>72</v>
       </c>
       <c r="K118" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="L118" t="s">
         <v>32</v>
@@ -12371,13 +12380,13 @@
         <v>32</v>
       </c>
       <c r="R118" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="S118" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="T118" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="U118" t="s">
         <v>32</v>
@@ -12389,15 +12398,15 @@
         <v>32</v>
       </c>
       <c r="X118" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Y118" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B119" t="s">
         <v>26</v>
@@ -12406,13 +12415,13 @@
         <v>66</v>
       </c>
       <c r="D119" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="E119" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="F119" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G119" t="s">
         <v>70</v>
@@ -12421,7 +12430,7 @@
         <v>32</v>
       </c>
       <c r="I119" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="J119" t="s">
         <v>72</v>
@@ -12445,10 +12454,10 @@
         <v>32</v>
       </c>
       <c r="Q119" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="R119" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="S119" t="s">
         <v>32</v>
@@ -12474,22 +12483,22 @@
     </row>
     <row r="120" spans="1:25">
       <c r="A120" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B120" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C120" t="s">
         <v>66</v>
       </c>
       <c r="D120" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="E120" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="F120" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G120" t="s">
         <v>70</v>
@@ -12498,7 +12507,7 @@
         <v>32</v>
       </c>
       <c r="I120" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="J120" t="s">
         <v>72</v>
@@ -12522,13 +12531,13 @@
         <v>32</v>
       </c>
       <c r="Q120" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="R120" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="S120" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="T120" t="s">
         <v>32</v>
@@ -12543,15 +12552,15 @@
         <v>32</v>
       </c>
       <c r="X120" t="s">
-        <v>934</v>
+        <v>386</v>
       </c>
       <c r="Y120" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B121" t="s">
         <v>26</v>
@@ -12560,13 +12569,13 @@
         <v>66</v>
       </c>
       <c r="D121" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="E121" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F121" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="G121" t="s">
         <v>70</v>
@@ -12575,13 +12584,13 @@
         <v>32</v>
       </c>
       <c r="I121" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="J121" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K121" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="L121" t="s">
         <v>32</v>
@@ -12596,13 +12605,13 @@
         <v>32</v>
       </c>
       <c r="P121" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="Q121" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="R121" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="S121" t="s">
         <v>32</v>
@@ -12611,13 +12620,13 @@
         <v>32</v>
       </c>
       <c r="U121" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="V121" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="W121" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="X121" t="s">
         <v>142</v>
@@ -12628,22 +12637,22 @@
     </row>
     <row r="122" spans="1:25">
       <c r="A122" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B122" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C122" t="s">
         <v>66</v>
       </c>
       <c r="D122" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="E122" t="s">
         <v>322</v>
       </c>
       <c r="F122" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G122" t="s">
         <v>70</v>
@@ -12652,10 +12661,10 @@
         <v>32</v>
       </c>
       <c r="I122" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="J122" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="K122" t="s">
         <v>103</v>
@@ -12676,13 +12685,13 @@
         <v>32</v>
       </c>
       <c r="Q122" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="R122" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="S122" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="T122" t="s">
         <v>32</v>
@@ -12705,7 +12714,7 @@
     </row>
     <row r="123" spans="1:25">
       <c r="A123" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B123" t="s">
         <v>26</v>
@@ -12714,13 +12723,13 @@
         <v>43</v>
       </c>
       <c r="D123" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="E123" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="F123" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="G123" t="s">
         <v>70</v>
@@ -12729,7 +12738,7 @@
         <v>32</v>
       </c>
       <c r="I123" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="J123" t="s">
         <v>72</v>
@@ -12756,7 +12765,7 @@
         <v>32</v>
       </c>
       <c r="R123" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="S123" t="s">
         <v>32</v>
@@ -12777,27 +12786,27 @@
         <v>96</v>
       </c>
       <c r="Y123" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="B124" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C124" t="s">
         <v>66</v>
       </c>
       <c r="D124" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E124" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F124" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="G124" t="s">
         <v>70</v>
@@ -12806,7 +12815,7 @@
         <v>32</v>
       </c>
       <c r="I124" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="J124" t="s">
         <v>72</v>
@@ -12833,10 +12842,10 @@
         <v>32</v>
       </c>
       <c r="R124" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="S124" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="T124" t="s">
         <v>32</v>
@@ -12854,12 +12863,12 @@
         <v>86</v>
       </c>
       <c r="Y124" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B125" t="s">
         <v>26</v>
@@ -12868,13 +12877,13 @@
         <v>66</v>
       </c>
       <c r="D125" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="E125" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="F125" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="G125" t="s">
         <v>70</v>
@@ -12883,13 +12892,13 @@
         <v>32</v>
       </c>
       <c r="I125" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="J125" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K125" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="L125" t="s">
         <v>32</v>
@@ -12907,10 +12916,10 @@
         <v>32</v>
       </c>
       <c r="Q125" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="R125" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="S125" t="s">
         <v>32</v>
@@ -12931,12 +12940,12 @@
         <v>173</v>
       </c>
       <c r="Y125" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B126" t="s">
         <v>26</v>
@@ -12945,13 +12954,13 @@
         <v>66</v>
       </c>
       <c r="D126" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="E126" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="F126" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="G126" t="s">
         <v>70</v>
@@ -12960,7 +12969,7 @@
         <v>32</v>
       </c>
       <c r="I126" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="J126" t="s">
         <v>72</v>
@@ -12984,10 +12993,10 @@
         <v>32</v>
       </c>
       <c r="Q126" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="R126" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="S126" t="s">
         <v>32</v>
@@ -13013,22 +13022,22 @@
     </row>
     <row r="127" spans="1:25">
       <c r="A127" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B127" t="s">
         <v>26</v>
       </c>
       <c r="C127" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D127" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E127" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="F127" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="G127" t="s">
         <v>31</v>
@@ -13040,10 +13049,10 @@
         <v>32</v>
       </c>
       <c r="J127" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K127" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L127" t="s">
         <v>32</v>
@@ -13064,7 +13073,7 @@
         <v>32</v>
       </c>
       <c r="R127" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="S127" t="s">
         <v>32</v>
